--- a/data/hotels_by_city/Dallas/Dallas_shard_628.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_628.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="495">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1369 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r577406363-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>55809</t>
+  </si>
+  <si>
+    <t>98828</t>
+  </si>
+  <si>
+    <t>577406363</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>Hidden Gem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had a business trip to Ennis, TX I normally stay at Holiday Inn ExpI had looked at TA. Found the Quality Inn. Was surprised it is a older hotel. Family owned and operated for a couple generations. Hotel was clean the rooms comfortable. They had a 1927 ford truck the grand father restored after he retired. Great place to stay! Breakfast in the morning scratch made. </t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r576123450-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>576123450</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>Fantastic</t>
+  </si>
+  <si>
+    <t>Comfortable room, great price and they even gave us popcorn and candy in the room.  Decorations were from the 80's but everything was very clean and well taken care of.  Breakfast was great too.  There even was a lounge chair to put your feet up.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r574640980-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>574640980</t>
+  </si>
+  <si>
+    <t>04/20/2018</t>
+  </si>
+  <si>
+    <t>Like Home! (Only Cleaner)</t>
+  </si>
+  <si>
+    <t>I CANNOT recommend this house highly enough! Many years of travelling between Texas Panhandle and Houston area have given us the opportunity of knowing this place since it was fairly new. The furnishings and hardware now show some wear, but the only way I can describe it is "lovingly maintained". Quality Inn, Ennis is family owned and family-friendly. These folks really take pride in what they do. Always immaculate. Grounds and pool always"five-star". The staff are top notch and are genuinely friendly. Example: stayed November '17, again earlier this month (April '18). The breakfast buffet lady greeted me and asked about our grandsons. She had remembered me. Kidded her I was going to get her a raise, she gestured towards an older gentlemen and said "tell him". He was the owner, on his first round of the day (6:30 AM). May sound odd, but feel comfortable and safe here. Good folks.MoreShow less</t>
+  </si>
+  <si>
+    <t>I CANNOT recommend this house highly enough! Many years of travelling between Texas Panhandle and Houston area have given us the opportunity of knowing this place since it was fairly new. The furnishings and hardware now show some wear, but the only way I can describe it is "lovingly maintained". Quality Inn, Ennis is family owned and family-friendly. These folks really take pride in what they do. Always immaculate. Grounds and pool always"five-star". The staff are top notch and are genuinely friendly. Example: stayed November '17, again earlier this month (April '18). The breakfast buffet lady greeted me and asked about our grandsons. She had remembered me. Kidded her I was going to get her a raise, she gestured towards an older gentlemen and said "tell him". He was the owner, on his first round of the day (6:30 AM). May sound odd, but feel comfortable and safe here. Good folks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r535078804-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>535078804</t>
+  </si>
+  <si>
+    <t>10/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shockingly surprised. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room and grounds were immaculate. America owned. Owner and staff were very friendly and helpful. Breakfast was great. Best economy hotel I have ever stayed in. I would highly recommend staying here if you are in the area. </t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r531199329-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>531199329</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>Very nice man checked us in. I didn't research enough to know this was a dog friendly hotel. I usually avoid dog friendly places.  I feel it is hard enough to clean up after people. I don't like the idea of walking on carpet that someone else's dog had been on. The carpets in the halls had stains. Room looked clean. Didn't have breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Bryan O, General Manager at Quality Inn, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Very nice man checked us in. I didn't research enough to know this was a dog friendly hotel. I usually avoid dog friendly places.  I feel it is hard enough to clean up after people. I don't like the idea of walking on carpet that someone else's dog had been on. The carpets in the halls had stains. Room looked clean. Didn't have breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r518301722-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>518301722</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>Superb Stay!!!!!!</t>
+  </si>
+  <si>
+    <t>I cannot say enough about our stay. IMPRESSED!!! Greeted by owner Rudy, very nice man. Wanted to make sure your needs are taken care of. Checked in by Bryan, very polite and helpful, especially with setting up my wifi, and then there was Carol in the breakfast bar who goes out of her way to make sure of your needs. The room w/50" TV and very nice recliner, lobby &amp; dining area was very clean and exterior grounds manicured. The pool, hot tub and sitting areas w/lit up trees and nice patio furniture clean and inviting. Complete staff during our stay was polite and there to meet your needs. I would and will stay again, 10 STARS to Quality Inn Ennis, Tx!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I cannot say enough about our stay. IMPRESSED!!! Greeted by owner Rudy, very nice man. Wanted to make sure your needs are taken care of. Checked in by Bryan, very polite and helpful, especially with setting up my wifi, and then there was Carol in the breakfast bar who goes out of her way to make sure of your needs. The room w/50" TV and very nice recliner, lobby &amp; dining area was very clean and exterior grounds manicured. The pool, hot tub and sitting areas w/lit up trees and nice patio furniture clean and inviting. Complete staff during our stay was polite and there to meet your needs. I would and will stay again, 10 STARS to Quality Inn Ennis, Tx!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r493767754-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>493767754</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>Last Minute Father's Day Fun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We booked this motel on Hotwire, not knowing what we were going to get. This place absolutely surprised us with the cleanliness, kindness, breakfast, and pool area. We have been all over the world and country, but few places do we actually want to return to. This place, however, we will return when visiting the Dallas area. It's small, dated, and a complete diamond in the rough. We are already planning our next visit here. </t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r484808813-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>484808813</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Best of Show</t>
+  </si>
+  <si>
+    <t>Without a doubt.The Best Quality Inn everywhere!This is a family owned business with top notch Rooms - super clean - great breakfast and a wonderful pool with an credible landscape while also in the attached wirlpool.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r482151769-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>482151769</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>Very pleased</t>
+  </si>
+  <si>
+    <t>This hotel was a wonderful find. We travel in a tractor trailor and are in hotels everynight and have become a custom to many unfavorable things in these hotels. Nothing unfavorable here! Although an older hotel, it is Very clean and the grounds are beautifully manicured.  Comfortable bed with cozy comforter. The bathroom very clean and the shower had great water pressure. The staff was very kind and Carol even fixed or waffels for us and brought them to our table. I know these are all small things, but it is very unusual to find all of the above in on hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r445983162-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>445983162</t>
+  </si>
+  <si>
+    <t>12/21/2016</t>
+  </si>
+  <si>
+    <t>Ahhh...Yes!</t>
+  </si>
+  <si>
+    <t>What a relief to walk in and immediately have full confidence we found a great place.  Room was spacious and immaculately clean. High ceilings and wonderful beds. Desk staff takes great pride in meeting your needs. Breakfast was above average. We will be back. This is a GREAT choice on I-45 south of D-FW!</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r442053566-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>442053566</t>
+  </si>
+  <si>
+    <t>12/04/2016</t>
+  </si>
+  <si>
+    <t>Quaint</t>
+  </si>
+  <si>
+    <t>I never stay at a hotel that I haven't check out on Trip Advisor first.  This was the #2 rated hotel in Ennis but it has a refrigerator and microwave in the room and the #1 rated hotel didn't.This is a motor lodge like in the 60's with each doorway open to the outside.  Request a room facing the pool area it you like a quiet room.We were greeted with a gift package in our room of 2 small chocolate bars and a package of microwaveable popcorn.  Nice.It is a family owned hotel and the front desk person was very personable and answered our questions regarding the area.The bedroom area seems to have been remodeled recently but the bathroom needs some work.  The entire area was very clean so a person can overlook the need to update.The price was fair and we would stay here again.There are a number of restaurants you can walk to.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>I never stay at a hotel that I haven't check out on Trip Advisor first.  This was the #2 rated hotel in Ennis but it has a refrigerator and microwave in the room and the #1 rated hotel didn't.This is a motor lodge like in the 60's with each doorway open to the outside.  Request a room facing the pool area it you like a quiet room.We were greeted with a gift package in our room of 2 small chocolate bars and a package of microwaveable popcorn.  Nice.It is a family owned hotel and the front desk person was very personable and answered our questions regarding the area.The bedroom area seems to have been remodeled recently but the bathroom needs some work.  The entire area was very clean so a person can overlook the need to update.The price was fair and we would stay here again.There are a number of restaurants you can walk to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r437632590-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>437632590</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>Love this place!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stay here whenever we are in Ennis on a business weekend. It is an older hotel but well cared for. The grounds are lovely. The staff is very friendly &amp; helpful. The breakfast has good choices that offer a hot breakfast &amp; not all carbs. The rooms are comfortable &amp; clean. My only complaint is the fridge sets on the floor with the microwave on top. This is not handy for my husband who is disabled. This quality Inn is affordable &amp; we feel safe staying here. Highly recommend! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r432910652-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>432910652</t>
+  </si>
+  <si>
+    <t>10/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonderful </t>
+  </si>
+  <si>
+    <t>Room was clean, comfortable, odor free and quiet.  Good free breakfast and friendly staff. Outside area exceptionally well maintained.  Pool clean and attractive. There was nothing that I noticed that needed improvement.Without a doubt would come again.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r414947830-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>414947830</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>Clean and friendly staff</t>
+  </si>
+  <si>
+    <t>I stayed here one night and the check in staff and breakfast staff were friendly and attentive. The hotel is older and has room access from outside with no interior hallways , but the property is kept up well. Free internet was strong in our room which was one of the further rooms from the lobby. The rooms were also spotless,  but could use furniture updating. The towels were also of low  quality and  need to be upgraded. The hotel is close to the highway and there are several fast food locations within walking distance of the hotel. I can recommend this hotel because of its price, location and cleanliness but it is not a modern design if that it is important to you. However, if you have been traveling and just need a clean and inexpensive room to stay the night before you continue on your trip then this hotel is a great choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>I stayed here one night and the check in staff and breakfast staff were friendly and attentive. The hotel is older and has room access from outside with no interior hallways , but the property is kept up well. Free internet was strong in our room which was one of the further rooms from the lobby. The rooms were also spotless,  but could use furniture updating. The towels were also of low  quality and  need to be upgraded. The hotel is close to the highway and there are several fast food locations within walking distance of the hotel. I can recommend this hotel because of its price, location and cleanliness but it is not a modern design if that it is important to you. However, if you have been traveling and just need a clean and inexpensive room to stay the night before you continue on your trip then this hotel is a great choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r410199092-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>410199092</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Fabulous Hotel in Ennis</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel while traveling through the area.  We called directly to hotel and booked our reservation with a very nice gentleman at front desk. We had not stayed at this hotel before and I was very surprised and impressed when opening up the door to our room.  The hotel room was immaculate and the furniture was looked to be fairly new.  Bed was extremely comfortable. Only negative thing would be that the towels were thin; otherwise, everything else was fabulous! We enjoyed our complementary breakfast in the morning which had great eggs, toast, waffles, etc.  Owner was so nice that he even made us a waffle!  We will definitely stay at this hotel again when we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel while traveling through the area.  We called directly to hotel and booked our reservation with a very nice gentleman at front desk. We had not stayed at this hotel before and I was very surprised and impressed when opening up the door to our room.  The hotel room was immaculate and the furniture was looked to be fairly new.  Bed was extremely comfortable. Only negative thing would be that the towels were thin; otherwise, everything else was fabulous! We enjoyed our complementary breakfast in the morning which had great eggs, toast, waffles, etc.  Owner was so nice that he even made us a waffle!  We will definitely stay at this hotel again when we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r388568148-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>388568148</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Outdated</t>
+  </si>
+  <si>
+    <t>Very outdated. In need of upgrades asap. Only spent a night and woke up with a bite on my face. Very old outdated furniture and bed. Light fixtures old. Carpet old. Tubs old and creepy bathroom. I will never stay here again. Definitely not an option.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r383679623-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>383679623</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t>Love this hotel</t>
+  </si>
+  <si>
+    <t>We were on our way to Dallas and I found this hotel on a website. All the reviews looked good and the price was excellent. The bed was comfortable and the room was very clean. When we went for breakfast the staff was very attentive. It's a family run hotel and they do an AMAZING job! We will be bringing the kids back!!!</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r382930484-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>382930484</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Clean, inexpensive and easy to locate</t>
+  </si>
+  <si>
+    <t>This was a last minute decision to go out of town and I was wanting to find a room that would not be too far from the highway and not overly priced on a Friday night. Not only did this fulfill my need, it was worth the price I paid. Next time I'm in that area of Texas, I plan on staying there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r367512775-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>367512775</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>A Quality Quality Inn</t>
+  </si>
+  <si>
+    <t>This very lovingly managed hotel was just the perfect place to rest for the evening.  The staff could not have been more accommodating, even selling me pillows from the bed that I had fallen in love with the previous night.  The bed was uber comfortable, the location perfect, the room beautifully created and clean, well-kept.  You can't go wrong if you stay here.  If you're into WhatABurgers, there's one in an adjacent corner and lots of other options nearby to eat.  I would gladly stay here again if I'm anywhere near this neck of the woods again.  If you are looking for a great base motel with comfy beds, plenty of space and well-managed, this is it.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>This very lovingly managed hotel was just the perfect place to rest for the evening.  The staff could not have been more accommodating, even selling me pillows from the bed that I had fallen in love with the previous night.  The bed was uber comfortable, the location perfect, the room beautifully created and clean, well-kept.  You can't go wrong if you stay here.  If you're into WhatABurgers, there's one in an adjacent corner and lots of other options nearby to eat.  I would gladly stay here again if I'm anywhere near this neck of the woods again.  If you are looking for a great base motel with comfy beds, plenty of space and well-managed, this is it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r363071758-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>363071758</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>Careful which room you get!</t>
+  </si>
+  <si>
+    <t>This property is well appointed - room could use newer carpet - however; if you need just a King Bed - you are in for an additional treat - of at least it was for me! Electric Recliners have been added to all King Rooms - extremely comfortable. Added nice touch was the "welcome" basket that included a cozy - a few mini candy bars &amp; popcorn. The room location was the issue - I 45 is directly across from the front of the hotel - our room was on the front #109 - you hear EVER 18 Wheeler getting off of I 45. Nice hotel for a 2 Diamond AAA Property and the AAA rate was very reasonable - just ask for a King Room on the back of the property and I feel your stay will be improved.MoreShow less</t>
+  </si>
+  <si>
+    <t>This property is well appointed - room could use newer carpet - however; if you need just a King Bed - you are in for an additional treat - of at least it was for me! Electric Recliners have been added to all King Rooms - extremely comfortable. Added nice touch was the "welcome" basket that included a cozy - a few mini candy bars &amp; popcorn. The room location was the issue - I 45 is directly across from the front of the hotel - our room was on the front #109 - you hear EVER 18 Wheeler getting off of I 45. Nice hotel for a 2 Diamond AAA Property and the AAA rate was very reasonable - just ask for a King Room on the back of the property and I feel your stay will be improved.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r361892921-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>361892921</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Just What I Needed</t>
+  </si>
+  <si>
+    <t>This Quality Inn is very nice.  Not fancy, but I didn't need fancy.  I needed a clean place to spend the night while going to a job interview in Dallas.  The room was very clean, no odors at all, the a/c and heating worked fine with no particular noises.  If I had to make a complaint, I would have to say that I didn't find a channel listing for the cable, but I didn't find that a problem.  Staff were nice and friendly.  I recommend this Quality Inn very much.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r353142626-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>353142626</t>
+  </si>
+  <si>
+    <t>03/05/2016</t>
+  </si>
+  <si>
+    <t>2nd Stay</t>
+  </si>
+  <si>
+    <t>This was our 2nd stay here and it was every bit as cozy and comfy as the first room!  There was a huge leather (electric) recliner in the room,  Staff is amazing!  This is an American family owned and operated business!  You don't see that much anymore!  We will definitely stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r348707079-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>348707079</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Great stay; We'll Return!</t>
+  </si>
+  <si>
+    <t>One of the friendliest places we have stayed starting when the young woman who took my reservation over the phone. I requested a downstairs handicapped room with 2 beds. When we arrived we were upgraded to a king bed with bars in the tub, which is what we needed. The owner is on the premises &amp; was tending the breakfast area, making certain food was hot &amp; plentiful. He's a very nice man to chat with, as well. The only negative I had was the refrigerator/microwave sat directly on the floor &amp; was easily to access for my handicapped husband. I mentioned this to the owner &amp; he quickly nodded his head. He mentioned they are starting some room renovations soon. Prices are reasonable, the grounds &amp; room are well kept. We had a pleasant business stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>One of the friendliest places we have stayed starting when the young woman who took my reservation over the phone. I requested a downstairs handicapped room with 2 beds. When we arrived we were upgraded to a king bed with bars in the tub, which is what we needed. The owner is on the premises &amp; was tending the breakfast area, making certain food was hot &amp; plentiful. He's a very nice man to chat with, as well. The only negative I had was the refrigerator/microwave sat directly on the floor &amp; was easily to access for my handicapped husband. I mentioned this to the owner &amp; he quickly nodded his head. He mentioned they are starting some room renovations soon. Prices are reasonable, the grounds &amp; room are well kept. We had a pleasant business stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r344965910-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>344965910</t>
+  </si>
+  <si>
+    <t>02/04/2016</t>
+  </si>
+  <si>
+    <t>A Clean and Comfortable Stay</t>
+  </si>
+  <si>
+    <t>We found the Quality Inn to be a very clean and comfortable place to stay. The location was convenient, just off Hwy 45 near a good choice of restaurants. Everything was very clean and well taken care of. The staff was friendly and helpful. The breakfast was plentiful and fresh with hot and cold choices. There was always an attendant present available to help. We would highly recommend this motel for a comfortable night's stay.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r302448715-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>302448715</t>
+  </si>
+  <si>
+    <t>08/23/2015</t>
+  </si>
+  <si>
+    <t>Friendly staff</t>
+  </si>
+  <si>
+    <t>Staff was helpful and friendly.  Front desk went out of their way for my husband who was unexpectedly sick while we were traveling, they even provided a free room upgrade.  Not to mention the breakfast included waffles in the shape of TEXAS!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r294008285-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>294008285</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>Great atmosphere</t>
+  </si>
+  <si>
+    <t>Was a wonderful stay just stayed one night on our trip to Houston to visit my kids. Had a great stay. Family owned and operated great breakfast clean rooms and the need were very clean and comfortable. The grounds are manicured and the whole place is beautiful. Will stay again when traveling to Texas.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r290813532-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>290813532</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>Pleasing Stay</t>
+  </si>
+  <si>
+    <t>Hotel Staff is wonderful and helpful. The room was clean and an extremely comfortable bed just needs BIGGER pillows. The pool was refreshing after a long day of travel and the location makes it easy to find a favorite place to eat. They had quality food for the breakfast. This is a wonderful place to stay overall</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r282074838-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>282074838</t>
+  </si>
+  <si>
+    <t>06/22/2015</t>
+  </si>
+  <si>
+    <t>Late night stay</t>
+  </si>
+  <si>
+    <t>We did a late trip to Louisiana and stumbled across Ennis! This hotel is the Best stay! Very well worth the money. It was inexpensive, and had all the bells and whistles. We would stay again in a heartbeat. They had everything In the room, microwave, mini frig, coffee etc. morning breakfast was awesome!!! Stay here you will be glad you did!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r280367302-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>280367302</t>
+  </si>
+  <si>
+    <t>06/15/2015</t>
+  </si>
+  <si>
+    <t>Nice Pool and Owners</t>
+  </si>
+  <si>
+    <t>The grounds were lovely, as was the swimming pool.   It seems the owners are very good with upkeep on the landscaping and pool area.Our room was average, had good a/c and a small refrigerator and coffee maker.  The room was dated but clean.  My only complaint was that the man on the second floor above us kept pitching cigarette butts off the balcony to the front of our room.  This is certainly not the motel people's fault, but they need more outdoor ashtrays since the rooms are non-smoking.I would stay here again if I was in Ennis.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r275186974-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>275186974</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Visit</t>
+  </si>
+  <si>
+    <t>I rarely am anxious to drive all the way to D/FW from Houston. i wanted to stay at this hotel based on reviews, price, and what I had heard about the wonderful family. The price was amazing. When you drive up, you are not too sure, except for the adorable antique truck in the drive,, but then you walk in to a living room that looks like something your parents would have, complete with a movable city scene. Greeting me, of course, were the wonderful owners. They made me very certain i had made the right choice, and was very welcome. Were these my parents? They gave me a suite, maybe because I was Professional woman traveling on her own. I went to Chilis for dinner (wish the hotel had apps and cocktails), but I am used to that. After my "marginal" dinner I drove to the hotel, walked past the very  nice pool to my room.  Ok, I am used to 4-5 star. This was not that. What I had was like going back to my "happy place" at Mema's ( my mom's mom in Kentucky)  floral furniture, plants, cute kitchen, super clean!!!!!! This is COMFORT staying.  I am going to enjoy my big bed. Glad I stopped at this adorable little place. Listen to your heart-don't judge a book by the name!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>I rarely am anxious to drive all the way to D/FW from Houston. i wanted to stay at this hotel based on reviews, price, and what I had heard about the wonderful family. The price was amazing. When you drive up, you are not too sure, except for the adorable antique truck in the drive,, but then you walk in to a living room that looks like something your parents would have, complete with a movable city scene. Greeting me, of course, were the wonderful owners. They made me very certain i had made the right choice, and was very welcome. Were these my parents? They gave me a suite, maybe because I was Professional woman traveling on her own. I went to Chilis for dinner (wish the hotel had apps and cocktails), but I am used to that. After my "marginal" dinner I drove to the hotel, walked past the very  nice pool to my room.  Ok, I am used to 4-5 star. This was not that. What I had was like going back to my "happy place" at Mema's ( my mom's mom in Kentucky)  floral furniture, plants, cute kitchen, super clean!!!!!! This is COMFORT staying.  I am going to enjoy my big bed. Glad I stopped at this adorable little place. Listen to your heart-don't judge a book by the name!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r265304144-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>265304144</t>
+  </si>
+  <si>
+    <t>04/12/2015</t>
+  </si>
+  <si>
+    <t>Would not stay here</t>
+  </si>
+  <si>
+    <t>The rating for this hotel was high by TripAdvisor.  The room smelled terrible.  Like long time smoking allowed and they tried to cover it up.  Almost smelled like urine.  We had to change rooms.  The next one was only slightly better.  We were put in room 109 and then in 107.  It also was noisy as it faced I-45 with all the traffic.  The people upstairs would come down the stairs right by the room we were in and smoke right outside our door.  I would NOT recommend this hotel.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r261968494-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>261968494</t>
+  </si>
+  <si>
+    <t>03/26/2015</t>
+  </si>
+  <si>
+    <t>Easy CheckIn and Great Location</t>
+  </si>
+  <si>
+    <t>After a long drive, I pulled my trailer into the Quality Inn at Ennis hoping they had a room and parking for my trailer. The gentleman at the front desk was very friendly, gave me a room down by the end for parking and gave me a good rate. There were ten restaurants within walking distance plus a Starbucks. The pool was very refreshing. Perfect location. Clean room and nice service.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r260961590-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>260961590</t>
+  </si>
+  <si>
+    <t>03/21/2015</t>
+  </si>
+  <si>
+    <t>Awesome, friendly, clean</t>
+  </si>
+  <si>
+    <t>An awesome hotel.The owner was taking care of the free breakfast cooking our waffle for use. Nice clean rooms. Friendly. Like seeing old friends. Super rates. Will definitely stay there again on our next trip.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r258442179-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>258442179</t>
+  </si>
+  <si>
+    <t>03/08/2015</t>
+  </si>
+  <si>
+    <t>Sanctuary from The Ice Storm</t>
+  </si>
+  <si>
+    <t>On February 27, Dallas was beat up by a nasty ice storm. My friend and I were due to leave on Saturday to meet a cruise ship in Houston.  We figured if we did not get out of town on Friday, we might not get out on Saturday at all and our travel insurance would not cover us if we missed the ship. It took five hours to get out of Dallas and y the time we got to Ennis we were exhausted. We found the Quality Inn at Ennis, Tx. They had rooms at a bargain rate. The rooms were clean, quiet, on the ground floor and included breakfast. They had the best waffles and the service was excellent. We enjoyed our stay and the breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>On February 27, Dallas was beat up by a nasty ice storm. My friend and I were due to leave on Saturday to meet a cruise ship in Houston.  We figured if we did not get out of town on Friday, we might not get out on Saturday at all and our travel insurance would not cover us if we missed the ship. It took five hours to get out of Dallas and y the time we got to Ennis we were exhausted. We found the Quality Inn at Ennis, Tx. They had rooms at a bargain rate. The rooms were clean, quiet, on the ground floor and included breakfast. They had the best waffles and the service was excellent. We enjoyed our stay and the breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r257311329-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>257311329</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t>Clean, quiet, great pool</t>
+  </si>
+  <si>
+    <t>The Ennis Quality Inn is the best place to stay in Ennis. Nothing fancy, but good value. Pool is best in town. Rooms are clean, comfortable and quiet. Everything works as it should. Property is park like, and maintained by 3 generations of a local Czech family, so they care and it shows.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r256746488-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>256746488</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
+  <si>
+    <t>Mrs. CURNUTT</t>
+  </si>
+  <si>
+    <t>My Husband and I stayed here on the way up to Colorado Springs for his fathers Funeral.  We liked it so much we stayed again on the way back to Houston.  The Customer Service was outstanding and we were quite comfortable in our room.  We got a good nights sleep.  Their breakfast was very very good.  They make an awesome waffle! Very nice people!    We will stay here everytime we head that way!  Thank you Quality Inn Ennis, Tx!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r246205659-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>246205659</t>
+  </si>
+  <si>
+    <t>12/28/2014</t>
+  </si>
+  <si>
+    <t>Great place for tired travelers!</t>
+  </si>
+  <si>
+    <t>We had a family emergency in Houston and stayed here on the way down and then again on the way back to NE Oklahoma. The staff was warm and welcoming and the room was clean and comfortable. We would definately stay here again. There are restaurants within walking distance which is a big plus as well. Highly recommend!</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r238523632-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>238523632</t>
+  </si>
+  <si>
+    <t>11/06/2014</t>
+  </si>
+  <si>
+    <t>Best Quality Inn I Have stayed In</t>
+  </si>
+  <si>
+    <t>Owners and staff take a lot of pride in their property. Very clean property and close to I45. Breakfast is very good with a wide variety of choices. Grounds are kept up very well Will plan to stay there when in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r235082529-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>235082529</t>
+  </si>
+  <si>
+    <t>10/18/2014</t>
+  </si>
+  <si>
+    <t>Stopped at last second, it was a great choice</t>
+  </si>
+  <si>
+    <t>This was a very nice hotel for a last minute decision to stop and get a room. With tax it was about $79. Friendly staff, very clean room and pretty good free breakfast, including scrambled eggs and sausage. Rooms are a little dated, but room was great. Close to a bunch of eating places and walmart, and right next to I-45. I'd stay again in a heartbeat.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r231368893-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>231368893</t>
+  </si>
+  <si>
+    <t>09/28/2014</t>
+  </si>
+  <si>
+    <t>Headed home from Six Flags</t>
+  </si>
+  <si>
+    <t>Stopped here on the way back to Houston.  We found the front desk personnel and they were very helpful and went out of their way to get us into the room quickly.  Very friendly and upgraded us at no cost.Room was very nice and clean .  Will stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r229612396-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>229612396</t>
+  </si>
+  <si>
+    <t>09/18/2014</t>
+  </si>
+  <si>
+    <t>NEW FAVORITE!!!</t>
+  </si>
+  <si>
+    <t>We found this hotel by chance when our regular hotel was booked.  What a find.  One of the last Owner-on-Site places left. Genuine hospitality and hometown comfort. Great price too. Morning breakfast was wonderful. Fresh and hot with a complimentary USA Today on every table.Owner remains in the breakfast area providing conversation and assistance keeping everything stocked and fresh.  Coffee was amazing.  Shopping and dining choices within walking distance. Just far enough from the Metro area to be cozy.  Will never stay anywhere else when in the Dallas area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r229257593-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>229257593</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Mom and Pop Management</t>
+  </si>
+  <si>
+    <t>Wonderful folks, homey place, extra touches, easy on-off freeway, walk to restaurants, attractively priced.  The breakfast was OK, but this isn't the Four Seasons....  I've stayed there maybe 10 times, with the same impression.  Solid.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r216382570-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>216382570</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>Nothing fancy, but very helpful</t>
+  </si>
+  <si>
+    <t>We stayed here on a redeye road trip from springfield to houston. We arrived at 3am, received tentative service, slept well, and stayed in clean conditions.  Definately wasn't the Hilton, but it was reasonably priced and provided us with a clean place to rest for a few hours.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r204338993-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>204338993</t>
+  </si>
+  <si>
+    <t>05/06/2014</t>
+  </si>
+  <si>
+    <t>Bluebonnet Trail</t>
+  </si>
+  <si>
+    <t>We very much enjoyed our stay. The hotel is old but has been very well maintained. I frequently rely on my nose to judge an older hotel and this one definitely passed the "sniff" test. It smells clean and fresh. It actually has the feel of a large bed and breakfast.  It's long time family owned and has that feel. We would recommend it and will stay there again if we go back to Ennis.  That said, do be aware that this is the old style motel with outside entry.  We had a room on the pool side, very quiet.  Reason for Trip:To see the bluebonnets.Travel Companions:Spouse/Significant Other</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r198007444-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>198007444</t>
+  </si>
+  <si>
+    <t>03/19/2014</t>
+  </si>
+  <si>
+    <t>Good stopover</t>
+  </si>
+  <si>
+    <t>We spent a night here on our way to the coast for spring break.  An older hotel but the rooms were clean and comfortable.  Staff was friendly and courteous.  Breakfast was typical hotel breakfast.  We would stay again if ever needing a room in that area.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r193976434-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>193976434</t>
+  </si>
+  <si>
+    <t>02/13/2014</t>
+  </si>
+  <si>
+    <t>Very nice and CLEAN</t>
+  </si>
+  <si>
+    <t>We stopped in on our way back from Dallas to Houston because it was too late to drive. My husband has stayed here before but this was my first time. The beds were very comfortable and the room was super clean. Breakfast was hot and included waffles, eggs and sausage. Owner by the same couple for 30 years. We will definitely stay here again.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r191233071-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>191233071</t>
+  </si>
+  <si>
+    <t>01/18/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly, kind and comfortable. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stopped in Ennis on our way to Houston.   Pulled into the Quality Inn, from the kindness of the woman at the front desk to the cleanliness of the room, the friendly staff at breakfast we had a great experience at what we thought would be just a overnight stop at a nameless hotel.  Would definitely stop here again.  </t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r185304550-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>185304550</t>
+  </si>
+  <si>
+    <t>11/20/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Just completed an 8-day stay at this hotel in Ennis.  I had stayed here before for several days and the quality is consistent.  The hotel is an older building that is kept up immaculately.  The rooms are sufficient for your needs and having the microwave and small fridge helps save money eating out.  The people are all friendly and cooperative and that is a real treat.  I highly recommend this hotel to anyone needing to spend the night in Ennis.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r176874765-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>176874765</t>
+  </si>
+  <si>
+    <t>09/12/2013</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>This is a good, clean and quiet place to stay just off the 45.The staff we met were very friendly and helpful. We had a room overlooking the pool and garden which was very quiet. Breakfast was good with plenty of choice.I would stay again, it's location is good as well.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r175093198-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>175093198</t>
+  </si>
+  <si>
+    <t>09/01/2013</t>
+  </si>
+  <si>
+    <t>D&amp;d vacation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The people we dealt with were very friendly and the service we received was good.  The room was clean and roomy but a little toooooo cold when we went in. Location was perfect for our needs. We enjoyed a visit with the owner on the morning that we left.  He owns and drives the old pickup that is parked in front.    </t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r167463335-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>167463335</t>
+  </si>
+  <si>
+    <t>07/13/2013</t>
+  </si>
+  <si>
+    <t>Great Innkeepers and it reflects on their property</t>
+  </si>
+  <si>
+    <t>I Tried this hotel because of their billboard on Interstate 45.  
+I was greeted by a friendly front desk clerk and a friendly bar keep.
+This hotel looks like one of the old Holiday Inns that I enjoyed staying at for years.  Hotel is well built and well maintained.  I got a "Down and Out" King (Downstairs facing the parking lot).  These rooms are great for convenience since you are just a few steps from your car.
+Room was clean and bed was comfortable.  They have a small bar that I was told is only open on the weekdays.  
+This hotel is really convenient to several eating establishments.  There is a Waffle House right next door and on the same side of the main street there is a Chili's, Wendy's, and Jack in the Box.  There is also a Super Wal-Mart within easy walking distance, but the hotel is not on the street with direct access to the Wal-Mart, so traffic is not a factor.
+The next morning I met the owner who was running the breakfast room and his wife who was running the front desk.  Mr and Mrs. Ozymy are two of the friendliest folks you will ever meet.  They both take great pride in their business and it is apparently a family affair with at least several of the employees I met were family members who also seemed to enjoy their jobs and keep the place up...I Tried this hotel because of their billboard on Interstate 45.  I was greeted by a friendly front desk clerk and a friendly bar keep.This hotel looks like one of the old Holiday Inns that I enjoyed staying at for years.  Hotel is well built and well maintained.  I got a "Down and Out" King (Downstairs facing the parking lot).  These rooms are great for convenience since you are just a few steps from your car.Room was clean and bed was comfortable.  They have a small bar that I was told is only open on the weekdays.  This hotel is really convenient to several eating establishments.  There is a Waffle House right next door and on the same side of the main street there is a Chili's, Wendy's, and Jack in the Box.  There is also a Super Wal-Mart within easy walking distance, but the hotel is not on the street with direct access to the Wal-Mart, so traffic is not a factor.The next morning I met the owner who was running the breakfast room and his wife who was running the front desk.  Mr and Mrs. Ozymy are two of the friendliest folks you will ever meet.  They both take great pride in their business and it is apparently a family affair with at least several of the employees I met were family members who also seemed to enjoy their jobs and keep the place up very well.I will definately stay here in my next visit to Ennis.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>I Tried this hotel because of their billboard on Interstate 45.  
+I was greeted by a friendly front desk clerk and a friendly bar keep.
+This hotel looks like one of the old Holiday Inns that I enjoyed staying at for years.  Hotel is well built and well maintained.  I got a "Down and Out" King (Downstairs facing the parking lot).  These rooms are great for convenience since you are just a few steps from your car.
+Room was clean and bed was comfortable.  They have a small bar that I was told is only open on the weekdays.  
+This hotel is really convenient to several eating establishments.  There is a Waffle House right next door and on the same side of the main street there is a Chili's, Wendy's, and Jack in the Box.  There is also a Super Wal-Mart within easy walking distance, but the hotel is not on the street with direct access to the Wal-Mart, so traffic is not a factor.
+The next morning I met the owner who was running the breakfast room and his wife who was running the front desk.  Mr and Mrs. Ozymy are two of the friendliest folks you will ever meet.  They both take great pride in their business and it is apparently a family affair with at least several of the employees I met were family members who also seemed to enjoy their jobs and keep the place up...I Tried this hotel because of their billboard on Interstate 45.  I was greeted by a friendly front desk clerk and a friendly bar keep.This hotel looks like one of the old Holiday Inns that I enjoyed staying at for years.  Hotel is well built and well maintained.  I got a "Down and Out" King (Downstairs facing the parking lot).  These rooms are great for convenience since you are just a few steps from your car.Room was clean and bed was comfortable.  They have a small bar that I was told is only open on the weekdays.  This hotel is really convenient to several eating establishments.  There is a Waffle House right next door and on the same side of the main street there is a Chili's, Wendy's, and Jack in the Box.  There is also a Super Wal-Mart within easy walking distance, but the hotel is not on the street with direct access to the Wal-Mart, so traffic is not a factor.The next morning I met the owner who was running the breakfast room and his wife who was running the front desk.  Mr and Mrs. Ozymy are two of the friendliest folks you will ever meet.  They both take great pride in their business and it is apparently a family affair with at least several of the employees I met were family members who also seemed to enjoy their jobs and keep the place up very well.I will definately stay here in my next visit to Ennis.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r161892307-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>161892307</t>
+  </si>
+  <si>
+    <t>05/26/2013</t>
+  </si>
+  <si>
+    <t>Pokla Festival in Ennis</t>
+  </si>
+  <si>
+    <t>The Quality Inn was extremely clean and folks very attentitive to you needs.  Personal were very friendly.  The waffles at breakfast were the best.  The owner said he and his wife owned this motel for 30 years and you can tell the took pride in their Inn.   Will stay again on next trip.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r161616923-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>161616923</t>
+  </si>
+  <si>
+    <t>05/23/2013</t>
+  </si>
+  <si>
+    <t>Pleasant Surprise in Ennis</t>
+  </si>
+  <si>
+    <t>My husband and I spent one night and were very impressed with the motel.  The customer service is first rate...Southern hospitality at its best It is an older establishment, but like the other viewers said, very well maintained. The rooms were clean and comfortable.  The grounds are immaculate,.  We stayed in one of the rooms facing the pool and relaxed by the pool before dinner.  I highly recommend this motel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r160134053-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>160134053</t>
+  </si>
+  <si>
+    <t>05/08/2013</t>
+  </si>
+  <si>
+    <t>Welcome surprise</t>
+  </si>
+  <si>
+    <t>What this hotel lacks in newness is more than compensated with character and customer service.  We drive 15 minutes longer to stay in Ennis because we enjoy this mom and pop hotel so much.  The breakfast is somewhat Choice standard but the juice is not the watered down swill some choice hotels sell. Everyone I've ever came in contact with has been helpful and friendly.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r153959487-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>153959487</t>
+  </si>
+  <si>
+    <t>03/07/2013</t>
+  </si>
+  <si>
+    <t>The two C's</t>
+  </si>
+  <si>
+    <t>Clean and Close to everything in Ennis. My wife and I stay here March 3 2013 for a quick over night. Friendly staff! The room looked like someone takes pride in their work, not just a quick once over with a cloth. Thanks.... yeah there really is a piano.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r143404002-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>143404002</t>
+  </si>
+  <si>
+    <t>10/21/2012</t>
+  </si>
+  <si>
+    <t>WOW this Quality Inn is great!</t>
+  </si>
+  <si>
+    <t>We stayed here because the reviews were so good.  It was a one night stay - owner is very nice, helpful. Rooms were nice, updated, quiet.  Breakfast was terrific - eggs, sausage, waffles cooked to order by the owner.  Piano bar  - really a  piano bar at a Quality Inn.  Highly recommend!</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r143226845-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>143226845</t>
+  </si>
+  <si>
+    <t>10/19/2012</t>
+  </si>
+  <si>
+    <t>Good experience</t>
+  </si>
+  <si>
+    <t>Wanted to thank Quality Inn for working with the PSA group on hotel rooms and being friendly with the large crowd that came into town last weekend. Rooms were clean and comfortable and will be visting again next time we are in town. Thanks!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r137209881-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>137209881</t>
+  </si>
+  <si>
+    <t>08/14/2012</t>
+  </si>
+  <si>
+    <t>We will be going back.</t>
+  </si>
+  <si>
+    <t>Location is excellent.  Walking distance of less than a block to wide variety of restaurants including Starbucks, Chilis, Whataburger, and the like, but the area is also quiet as well (at least when we were there on a Sunday night). Across the street is the Chamber of Commerce so if you are visiting the area it would be easy to get information! The staff (family) is very pleasant and work very hard to make sure you stay is a good one - they truly do demonstrate the pride their website describes. Our room was all updated with new tile, fixtures, bedding, etc. Landscaping is pretty and if you like to walk there are large shade trees, a great patio area as well.  The hotel, rooms, and grounds were extremely clean. We felt the prices were fair and a good value.  The breakfast was also above what is normally offered at a quality inn. They had a wide variety and the entire family was able to get full - the staff/family made sure to restock as things ran out which is a nice change. The hot eggs and sausage were good and a nice change. The kids enjoyed the special waffles (don't want to spoil the little surprise you get with those!)  We will be staying here again on our next trip South.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Location is excellent.  Walking distance of less than a block to wide variety of restaurants including Starbucks, Chilis, Whataburger, and the like, but the area is also quiet as well (at least when we were there on a Sunday night). Across the street is the Chamber of Commerce so if you are visiting the area it would be easy to get information! The staff (family) is very pleasant and work very hard to make sure you stay is a good one - they truly do demonstrate the pride their website describes. Our room was all updated with new tile, fixtures, bedding, etc. Landscaping is pretty and if you like to walk there are large shade trees, a great patio area as well.  The hotel, rooms, and grounds were extremely clean. We felt the prices were fair and a good value.  The breakfast was also above what is normally offered at a quality inn. They had a wide variety and the entire family was able to get full - the staff/family made sure to restock as things ran out which is a nice change. The hot eggs and sausage were good and a nice change. The kids enjoyed the special waffles (don't want to spoil the little surprise you get with those!)  We will be staying here again on our next trip South.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r134217902-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>134217902</t>
+  </si>
+  <si>
+    <t>07/12/2012</t>
+  </si>
+  <si>
+    <t>Repeat Customer!</t>
+  </si>
+  <si>
+    <t>This is a wonderfully peaceful Inn.  Easy to get to just off of 45 and close to Dallas.  We have deliberately went back two years in a row after finding this hotel three years ago by chance.  Wonderful breakfast, but the pool alone is worth it.  Outside with a hot tub within the fence, it is surrounded by trees and has two sides that you see just green lawn and trees.  Rudy runs a tight ship, so everything is so clean and nice.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r133452429-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>133452429</t>
+  </si>
+  <si>
+    <t>07/04/2012</t>
+  </si>
+  <si>
+    <t>THE BEST QUALITY INN EVER!!!!</t>
+  </si>
+  <si>
+    <t>Not a new property.....but so well maintained, unbelieveable!  Pecos TX could take quite a few lessons from this property.  First of all the reception at the front desk was wonderful.  Warm &amp; gracious...everyone at the property.   The room was perfectly clean and everything worked!  I was new to using my laptop on the road.....the general manager came to our room to help me connect and gave me a few tips.  What service!!!!  The breakfast room was a beauty.  It is a gathering place in the evening with spirits, beer and a baby grand piano.  In the morning the waffles are made to perfection and brought to your table.  We really can't say enough about this property.  The only thing that we're sorry for is that we missed the International Polka Festival, held in Ennis every year, the last weekend in May.  We were there the following weekend, darn!   Anyway, this is NUMBER ONE in my book for Quality Inns - Thank you to the family who runs this establishment.....it was wonderful ....oh yes..and the price for our room was $81.36 for one night....vs $130.01 for Pecos which was well.....let's not go there...you can read that review if you like.  Just go to Ennis TX and stay here!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Not a new property.....but so well maintained, unbelieveable!  Pecos TX could take quite a few lessons from this property.  First of all the reception at the front desk was wonderful.  Warm &amp; gracious...everyone at the property.   The room was perfectly clean and everything worked!  I was new to using my laptop on the road.....the general manager came to our room to help me connect and gave me a few tips.  What service!!!!  The breakfast room was a beauty.  It is a gathering place in the evening with spirits, beer and a baby grand piano.  In the morning the waffles are made to perfection and brought to your table.  We really can't say enough about this property.  The only thing that we're sorry for is that we missed the International Polka Festival, held in Ennis every year, the last weekend in May.  We were there the following weekend, darn!   Anyway, this is NUMBER ONE in my book for Quality Inns - Thank you to the family who runs this establishment.....it was wonderful ....oh yes..and the price for our room was $81.36 for one night....vs $130.01 for Pecos which was well.....let's not go there...you can read that review if you like.  Just go to Ennis TX and stay here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r121401794-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>121401794</t>
+  </si>
+  <si>
+    <t>12/04/2011</t>
+  </si>
+  <si>
+    <t>Good Waffles</t>
+  </si>
+  <si>
+    <t>Got in late and got up early.  Room seemed nice.  Went to breakfast and the proprietor was the waffle maker.  Everyone got a special Texas shaped waffle to go with their breakfast.  No hanging around the waffle maker waiting, your waffle was brought to your table just for you.  Made for a good stay.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r121205484-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>121205484</t>
+  </si>
+  <si>
+    <t>11/29/2011</t>
+  </si>
+  <si>
+    <t>Highly recommended</t>
+  </si>
+  <si>
+    <t>top scores in all respects. (Entrance road tricky)..  Comfortable beds, professional happy staff, great hot tub and outside pool, excellent breakfast with high protein options, bar open evenings during business week.  This is a 27 year family owned and operated facility which makes for a staff totally dedicated to welfare of patrons.  Highly recommended. We were surprised with upgrade to a larger room.  You will not be disappointed. We will be back.  Thanks Trip Advisor!  Very helpful in locating this great place to stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r119911349-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>119911349</t>
+  </si>
+  <si>
+    <t>10/30/2011</t>
+  </si>
+  <si>
+    <t>Nice and clean</t>
+  </si>
+  <si>
+    <t>a two nite stay with two queen beds. Only problem is the trains horn at 3 am, not one but I think three trains. Rest of the nite was quite. Friendly staff and good hot breakfast.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r88575482-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>88575482</t>
+  </si>
+  <si>
+    <t>11/29/2010</t>
+  </si>
+  <si>
+    <t>PLEASANTLY SURPRISED.....</t>
+  </si>
+  <si>
+    <t>What a surprise...My family and I were in town for the Thanksgiving holiday.  We booked our room because it was near our family meeting place, but we did not know if we would be staying based on the pictures available on the web-site.  The rooms looked old and worn.  Upon check-in we were immediately impressed with this hotel.  The rooms have been definitly updated are are very clean and comfortable.  The staff was friendly and the breakfast was good.  Very well maintained grounds and all the amenities you could hope for, even a bar for a nightcap.  We really enjoyed our stay.</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r84529713-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>84529713</t>
+  </si>
+  <si>
+    <t>10/23/2010</t>
+  </si>
+  <si>
+    <t>home away from home</t>
+  </si>
+  <si>
+    <t>If you enjoy and appreciate the comforts of home, you will relish in your stay at this family-run hotel. The staff is EXTRA nice, helpful, and friendly. For example,  I was expecting a very important package and the staff was nice enough to call me when the package arrived. Thanks to their attention to their customers, I was able to pick up the package prior to the end of my event and save face with my client by delivering what was promised! Oh, and the free breakfast was the perfect start to the day - not to mention the awesome Douwe Egbert's coffee! The staff and courtesy of Quality Inn runs circles around some of the bigger chains, including Fairfield Inn in El Paso!I travel five days a week all across the Southwest and I definitely look forward to staying at this hotel in the future!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>If you enjoy and appreciate the comforts of home, you will relish in your stay at this family-run hotel. The staff is EXTRA nice, helpful, and friendly. For example,  I was expecting a very important package and the staff was nice enough to call me when the package arrived. Thanks to their attention to their customers, I was able to pick up the package prior to the end of my event and save face with my client by delivering what was promised! Oh, and the free breakfast was the perfect start to the day - not to mention the awesome Douwe Egbert's coffee! The staff and courtesy of Quality Inn runs circles around some of the bigger chains, including Fairfield Inn in El Paso!I travel five days a week all across the Southwest and I definitely look forward to staying at this hotel in the future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r76636327-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>76636327</t>
+  </si>
+  <si>
+    <t>08/24/2010</t>
+  </si>
+  <si>
+    <t>Wonderful, Staff is very attentive &amp; highly recommended!!</t>
+  </si>
+  <si>
+    <t>I checked in around 10 am and was very pleasantly greeted by the front desk associate.  I was put in a very quiet end of the hotel and was very happy due to the fact that I had been traveling non stop and was exhausted.  The room was very comfortable however the A/C wasn't top notch and the room needed some updating.  It was a smoking room, which I requested but did not smell "stale" as most smoking rooms do.  When I checked out the next morning I informed the front desk of the small issues and they were VERY attentive, apologized profusely and wanted to make sure I was satisfied with my stay.  I HIGHLY recommend this hotel, if nothing but for the welcoming attitude of the staff and their positive attitude of "You're a guest and you CHOSE our hotel."  It was wonderful.  Thank you for a very positive experience!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>I checked in around 10 am and was very pleasantly greeted by the front desk associate.  I was put in a very quiet end of the hotel and was very happy due to the fact that I had been traveling non stop and was exhausted.  The room was very comfortable however the A/C wasn't top notch and the room needed some updating.  It was a smoking room, which I requested but did not smell "stale" as most smoking rooms do.  When I checked out the next morning I informed the front desk of the small issues and they were VERY attentive, apologized profusely and wanted to make sure I was satisfied with my stay.  I HIGHLY recommend this hotel, if nothing but for the welcoming attitude of the staff and their positive attitude of "You're a guest and you CHOSE our hotel."  It was wonderful.  Thank you for a very positive experience!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r50108613-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>50108613</t>
+  </si>
+  <si>
+    <t>11/26/2009</t>
+  </si>
+  <si>
+    <t>Feels like home!</t>
+  </si>
+  <si>
+    <t>I grew up in Ennis, and still have family there. Every time we come to visit we always enjoy staying at the Quality Inn. The Ozymy family always makes us feel welcome. The service they provide cannot be beat. Excellent breakfast!</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r49287587-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>49287587</t>
+  </si>
+  <si>
+    <t>11/15/2009</t>
+  </si>
+  <si>
+    <t>good for the night</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel for one evening.  The room was off the driveway near the outdoor pool.  Easy to access and had two queen beds.  We didn't use the microwave, refrigerator or coffee maker.  The air conditioner was really loud during the evening, but we kept it on as not to hear any noise.  Was fine.  The room was clean and the beds comfortable.  The tub, toilet grout had been sloppily done and looked dirty.  When I was in the shower the water surged to very hot and then back to normal all through the shower.  The balancer must have been broken.  I started listening for the change in sound of the water coming through the pipes and then moved out of the way for the rest of my shower.  Let the front desk know at check out.  Was good for a one night stay.  Close to everything.MoreShow less</t>
+  </si>
+  <si>
+    <t>ozymy, owner at Quality Inn, responded to this reviewResponded December 22, 2009</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2009</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel for one evening.  The room was off the driveway near the outdoor pool.  Easy to access and had two queen beds.  We didn't use the microwave, refrigerator or coffee maker.  The air conditioner was really loud during the evening, but we kept it on as not to hear any noise.  Was fine.  The room was clean and the beds comfortable.  The tub, toilet grout had been sloppily done and looked dirty.  When I was in the shower the water surged to very hot and then back to normal all through the shower.  The balancer must have been broken.  I started listening for the change in sound of the water coming through the pipes and then moved out of the way for the rest of my shower.  Let the front desk know at check out.  Was good for a one night stay.  Close to everything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r42754392-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>42754392</t>
+  </si>
+  <si>
+    <t>09/18/2009</t>
+  </si>
+  <si>
+    <t>Surprisingly good</t>
+  </si>
+  <si>
+    <t>We had to make a sudden stop traveling to Houston and we ended up in this little hotel. The room was small but very clean, with a refrigerator and microwave and all the perks...Our room was facing the street but it wasn'y noisy at all. We had a Denny's a Chili's, a Jack on the box and many other restaurants around us, even an Autozone that helped us get on our way again. The rate included breakfast, which was very good, and the people that ran the cafeteria was very nice and friendly, they even had this cute texas-shaped waffles that my kids loved! So if you need to stop somewhere in Ennis, this is a very good place to do so.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>We had to make a sudden stop traveling to Houston and we ended up in this little hotel. The room was small but very clean, with a refrigerator and microwave and all the perks...Our room was facing the street but it wasn'y noisy at all. We had a Denny's a Chili's, a Jack on the box and many other restaurants around us, even an Autozone that helped us get on our way again. The rate included breakfast, which was very good, and the people that ran the cafeteria was very nice and friendly, they even had this cute texas-shaped waffles that my kids loved! So if you need to stop somewhere in Ennis, this is a very good place to do so.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r18318253-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>18318253</t>
+  </si>
+  <si>
+    <t>07/27/2008</t>
+  </si>
+  <si>
+    <t>Loved the Quality Inn</t>
+  </si>
+  <si>
+    <t>Wanted an inexpensive place nearby home to swim and relax for the weekend.  I read the reviews of the Quality Inn (which is motel style - all of the rooms are entered from the outside) and decided to give the place a try.  I was very pleasantly surprised.  The property is clean, and very well maintained - and I do mean very well maintained.  The staff are very friendly and helpful.  My 5 year old and I stayed in a king room, which had a flat screen t.v., a desk, microwave, and a mini-fridge.  The room was clean and the bed linens were upscale.  The bathtub and faucets could be updated though.  The shower head was nice - had several settings including a rainshower setting.  Our room faced the swimming pool, which is a very nice size with several large steps leading into the pool for a small child to play on.  The 7-person hot tub was separate from the pool.  It's built up on a deck and has a walkway leading up to it.  The hot tub probably does need to be updated, but it worked.  Even though it was hot outside, the water in the hot tub was a comfortable temperature.  Outside of the swimming pool area is a large lawn which just beckons for someone to play games on.  The motel has a full bar for hotel guests - open M-F, and a continental breakfast in the...Wanted an inexpensive place nearby home to swim and relax for the weekend.  I read the reviews of the Quality Inn (which is motel style - all of the rooms are entered from the outside) and decided to give the place a try.  I was very pleasantly surprised.  The property is clean, and very well maintained - and I do mean very well maintained.  The staff are very friendly and helpful.  My 5 year old and I stayed in a king room, which had a flat screen t.v., a desk, microwave, and a mini-fridge.  The room was clean and the bed linens were upscale.  The bathtub and faucets could be updated though.  The shower head was nice - had several settings including a rainshower setting.  Our room faced the swimming pool, which is a very nice size with several large steps leading into the pool for a small child to play on.  The 7-person hot tub was separate from the pool.  It's built up on a deck and has a walkway leading up to it.  The hot tub probably does need to be updated, but it worked.  Even though it was hot outside, the water in the hot tub was a comfortable temperature.  Outside of the swimming pool area is a large lawn which just beckons for someone to play games on.  The motel has a full bar for hotel guests - open M-F, and a continental breakfast in the morning. I did not access the bar, nor did we have breakfast, so I can't comment on those amenities.  Within a very easy walking distance are a couple of restaurants, 3 fast food places and a coffee bar.  There are several restaurants, fast food places and stores within a short driving distance.  Check-in at the motel is a breeze and check-in times are flexible.  Check-out is 12:00 p.m., so you can sleep in if you want to.  This motel is locally owned and operated.  It's obvious that the owners take pride in their business and offer excellent customer service so their customers will keep coming back.  We will definitely be back - hope this place is around for many more years.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>Wanted an inexpensive place nearby home to swim and relax for the weekend.  I read the reviews of the Quality Inn (which is motel style - all of the rooms are entered from the outside) and decided to give the place a try.  I was very pleasantly surprised.  The property is clean, and very well maintained - and I do mean very well maintained.  The staff are very friendly and helpful.  My 5 year old and I stayed in a king room, which had a flat screen t.v., a desk, microwave, and a mini-fridge.  The room was clean and the bed linens were upscale.  The bathtub and faucets could be updated though.  The shower head was nice - had several settings including a rainshower setting.  Our room faced the swimming pool, which is a very nice size with several large steps leading into the pool for a small child to play on.  The 7-person hot tub was separate from the pool.  It's built up on a deck and has a walkway leading up to it.  The hot tub probably does need to be updated, but it worked.  Even though it was hot outside, the water in the hot tub was a comfortable temperature.  Outside of the swimming pool area is a large lawn which just beckons for someone to play games on.  The motel has a full bar for hotel guests - open M-F, and a continental breakfast in the...Wanted an inexpensive place nearby home to swim and relax for the weekend.  I read the reviews of the Quality Inn (which is motel style - all of the rooms are entered from the outside) and decided to give the place a try.  I was very pleasantly surprised.  The property is clean, and very well maintained - and I do mean very well maintained.  The staff are very friendly and helpful.  My 5 year old and I stayed in a king room, which had a flat screen t.v., a desk, microwave, and a mini-fridge.  The room was clean and the bed linens were upscale.  The bathtub and faucets could be updated though.  The shower head was nice - had several settings including a rainshower setting.  Our room faced the swimming pool, which is a very nice size with several large steps leading into the pool for a small child to play on.  The 7-person hot tub was separate from the pool.  It's built up on a deck and has a walkway leading up to it.  The hot tub probably does need to be updated, but it worked.  Even though it was hot outside, the water in the hot tub was a comfortable temperature.  Outside of the swimming pool area is a large lawn which just beckons for someone to play games on.  The motel has a full bar for hotel guests - open M-F, and a continental breakfast in the morning. I did not access the bar, nor did we have breakfast, so I can't comment on those amenities.  Within a very easy walking distance are a couple of restaurants, 3 fast food places and a coffee bar.  There are several restaurants, fast food places and stores within a short driving distance.  Check-in at the motel is a breeze and check-in times are flexible.  Check-out is 12:00 p.m., so you can sleep in if you want to.  This motel is locally owned and operated.  It's obvious that the owners take pride in their business and offer excellent customer service so their customers will keep coming back.  We will definitely be back - hope this place is around for many more years.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r15001670-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>15001670</t>
+  </si>
+  <si>
+    <t>04/13/2008</t>
+  </si>
+  <si>
+    <t>Great Stop over</t>
+  </si>
+  <si>
+    <t>Stayed for 1 night on way back to Dallas airport. ]Spotlessly clean good, free breakfast.Close  to shops . Ideal for stop over,friendly personnel.</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r13064220-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>13064220</t>
+  </si>
+  <si>
+    <t>01/28/2008</t>
+  </si>
+  <si>
+    <t>we will come back!!</t>
+  </si>
+  <si>
+    <t>Our stay at the Quality Inn in Ennis was a very nice one. The hotel staff was very friendly and helpful.  LOVED the little lounge...the older bartender was great company.  We came for the drag races and our honeymoon...It was in a great location and the rooms were very clean.   THE GROUNDS surrounding the hotel were in excellent shape!  WE RECOMMEND this hotel to EVERYONE that is looking for a place to stay in and around ENNIS. WE WILL BE BACK!!!</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r7295445-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>7295445</t>
+  </si>
+  <si>
+    <t>04/07/2007</t>
+  </si>
+  <si>
+    <t>Clean hotel</t>
+  </si>
+  <si>
+    <t>Very clean and staff nice.  Recommended by local Visitors Info. office and reasonbly priced.  Off  of main road I-45 a little bit which cuts down on highway  noise in room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r5539104-Quality_Inn-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>5539104</t>
+  </si>
+  <si>
+    <t>07/31/2006</t>
+  </si>
+  <si>
+    <t>very nice place to stay</t>
+  </si>
+  <si>
+    <t>while on our way to galveston texas we stayed at the quality inn in ennis texas and it was wonderful the staff was great and the they had a great breakfast the outdoor pool and hot tub was very relaxing after a long day of traveling everything was very clean and well kept we would stay there again any time</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2011,4624 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>155</v>
+      </c>
+      <c r="O19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>166</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21" t="s">
+        <v>172</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>166</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>179</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>181</v>
+      </c>
+      <c r="J23" t="s">
+        <v>182</v>
+      </c>
+      <c r="K23" t="s">
+        <v>183</v>
+      </c>
+      <c r="L23" t="s">
+        <v>184</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>179</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" t="s">
+        <v>188</v>
+      </c>
+      <c r="L24" t="s">
+        <v>189</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>190</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>193</v>
+      </c>
+      <c r="J25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" t="s">
+        <v>195</v>
+      </c>
+      <c r="L25" t="s">
+        <v>196</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>197</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s">
+        <v>202</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>149</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>204</v>
+      </c>
+      <c r="J27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K27" t="s">
+        <v>206</v>
+      </c>
+      <c r="L27" t="s">
+        <v>207</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>208</v>
+      </c>
+      <c r="O27" t="s">
+        <v>78</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>210</v>
+      </c>
+      <c r="J28" t="s">
+        <v>211</v>
+      </c>
+      <c r="K28" t="s">
+        <v>212</v>
+      </c>
+      <c r="L28" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>208</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>214</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>215</v>
+      </c>
+      <c r="J29" t="s">
+        <v>216</v>
+      </c>
+      <c r="K29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L29" t="s">
+        <v>218</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>220</v>
+      </c>
+      <c r="J30" t="s">
+        <v>221</v>
+      </c>
+      <c r="K30" t="s">
+        <v>222</v>
+      </c>
+      <c r="L30" t="s">
+        <v>223</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>224</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>226</v>
+      </c>
+      <c r="J31" t="s">
+        <v>227</v>
+      </c>
+      <c r="K31" t="s">
+        <v>228</v>
+      </c>
+      <c r="L31" t="s">
+        <v>229</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>230</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>233</v>
+      </c>
+      <c r="J32" t="s">
+        <v>234</v>
+      </c>
+      <c r="K32" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" t="s">
+        <v>236</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>237</v>
+      </c>
+      <c r="O32" t="s">
+        <v>78</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>239</v>
+      </c>
+      <c r="J33" t="s">
+        <v>240</v>
+      </c>
+      <c r="K33" t="s">
+        <v>241</v>
+      </c>
+      <c r="L33" t="s">
+        <v>242</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>243</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>245</v>
+      </c>
+      <c r="J34" t="s">
+        <v>246</v>
+      </c>
+      <c r="K34" t="s">
+        <v>247</v>
+      </c>
+      <c r="L34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>249</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>251</v>
+      </c>
+      <c r="J35" t="s">
+        <v>252</v>
+      </c>
+      <c r="K35" t="s">
+        <v>253</v>
+      </c>
+      <c r="L35" t="s">
+        <v>254</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>249</v>
+      </c>
+      <c r="O35" t="s">
+        <v>255</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>257</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>258</v>
+      </c>
+      <c r="J36" t="s">
+        <v>259</v>
+      </c>
+      <c r="K36" t="s">
+        <v>260</v>
+      </c>
+      <c r="L36" t="s">
+        <v>261</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>249</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>263</v>
+      </c>
+      <c r="J37" t="s">
+        <v>264</v>
+      </c>
+      <c r="K37" t="s">
+        <v>265</v>
+      </c>
+      <c r="L37" t="s">
+        <v>266</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>249</v>
+      </c>
+      <c r="O37" t="s">
+        <v>78</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>267</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>268</v>
+      </c>
+      <c r="J38" t="s">
+        <v>269</v>
+      </c>
+      <c r="K38" t="s">
+        <v>270</v>
+      </c>
+      <c r="L38" t="s">
+        <v>271</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>272</v>
+      </c>
+      <c r="O38" t="s">
+        <v>78</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>273</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>274</v>
+      </c>
+      <c r="J39" t="s">
+        <v>275</v>
+      </c>
+      <c r="K39" t="s">
+        <v>276</v>
+      </c>
+      <c r="L39" t="s">
+        <v>277</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>272</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>278</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>279</v>
+      </c>
+      <c r="J40" t="s">
+        <v>280</v>
+      </c>
+      <c r="K40" t="s">
+        <v>281</v>
+      </c>
+      <c r="L40" t="s">
+        <v>282</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>283</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>284</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>285</v>
+      </c>
+      <c r="J41" t="s">
+        <v>286</v>
+      </c>
+      <c r="K41" t="s">
+        <v>287</v>
+      </c>
+      <c r="L41" t="s">
+        <v>288</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>290</v>
+      </c>
+      <c r="J42" t="s">
+        <v>291</v>
+      </c>
+      <c r="K42" t="s">
+        <v>292</v>
+      </c>
+      <c r="L42" t="s">
+        <v>293</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>243</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>294</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>295</v>
+      </c>
+      <c r="J43" t="s">
+        <v>296</v>
+      </c>
+      <c r="K43" t="s">
+        <v>297</v>
+      </c>
+      <c r="L43" t="s">
+        <v>298</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>299</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>300</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>301</v>
+      </c>
+      <c r="J44" t="s">
+        <v>302</v>
+      </c>
+      <c r="K44" t="s">
+        <v>303</v>
+      </c>
+      <c r="L44" t="s">
+        <v>304</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>299</v>
+      </c>
+      <c r="O44" t="s">
+        <v>255</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>305</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>306</v>
+      </c>
+      <c r="J45" t="s">
+        <v>307</v>
+      </c>
+      <c r="K45" t="s">
+        <v>308</v>
+      </c>
+      <c r="L45" t="s">
+        <v>309</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>310</v>
+      </c>
+      <c r="O45" t="s">
+        <v>78</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>311</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>312</v>
+      </c>
+      <c r="J46" t="s">
+        <v>313</v>
+      </c>
+      <c r="K46" t="s">
+        <v>314</v>
+      </c>
+      <c r="L46" t="s">
+        <v>315</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>316</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>317</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>318</v>
+      </c>
+      <c r="J47" t="s">
+        <v>319</v>
+      </c>
+      <c r="K47" t="s">
+        <v>320</v>
+      </c>
+      <c r="L47" t="s">
+        <v>321</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>322</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>323</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>324</v>
+      </c>
+      <c r="J48" t="s">
+        <v>325</v>
+      </c>
+      <c r="K48" t="s">
+        <v>326</v>
+      </c>
+      <c r="L48" t="s">
+        <v>327</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>328</v>
+      </c>
+      <c r="O48" t="s">
+        <v>255</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>329</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>330</v>
+      </c>
+      <c r="J49" t="s">
+        <v>331</v>
+      </c>
+      <c r="K49" t="s">
+        <v>332</v>
+      </c>
+      <c r="L49" t="s">
+        <v>333</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>334</v>
+      </c>
+      <c r="O49" t="s">
+        <v>78</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>335</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>336</v>
+      </c>
+      <c r="J50" t="s">
+        <v>337</v>
+      </c>
+      <c r="K50" t="s">
+        <v>338</v>
+      </c>
+      <c r="L50" t="s">
+        <v>339</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>340</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>341</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>342</v>
+      </c>
+      <c r="J51" t="s">
+        <v>343</v>
+      </c>
+      <c r="K51" t="s">
+        <v>344</v>
+      </c>
+      <c r="L51" t="s">
+        <v>345</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>346</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>347</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>348</v>
+      </c>
+      <c r="J52" t="s">
+        <v>349</v>
+      </c>
+      <c r="K52" t="s">
+        <v>350</v>
+      </c>
+      <c r="L52" t="s">
+        <v>351</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>352</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>354</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>355</v>
+      </c>
+      <c r="J53" t="s">
+        <v>356</v>
+      </c>
+      <c r="K53" t="s">
+        <v>357</v>
+      </c>
+      <c r="L53" t="s">
+        <v>358</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>359</v>
+      </c>
+      <c r="O53" t="s">
+        <v>78</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>360</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>361</v>
+      </c>
+      <c r="J54" t="s">
+        <v>362</v>
+      </c>
+      <c r="K54" t="s">
+        <v>363</v>
+      </c>
+      <c r="L54" t="s">
+        <v>364</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>359</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>365</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>366</v>
+      </c>
+      <c r="J55" t="s">
+        <v>367</v>
+      </c>
+      <c r="K55" t="s">
+        <v>368</v>
+      </c>
+      <c r="L55" t="s">
+        <v>369</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>370</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>371</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>372</v>
+      </c>
+      <c r="J56" t="s">
+        <v>373</v>
+      </c>
+      <c r="K56" t="s">
+        <v>374</v>
+      </c>
+      <c r="L56" t="s">
+        <v>375</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>376</v>
+      </c>
+      <c r="O56" t="s">
+        <v>78</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>377</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>378</v>
+      </c>
+      <c r="J57" t="s">
+        <v>379</v>
+      </c>
+      <c r="K57" t="s">
+        <v>380</v>
+      </c>
+      <c r="L57" t="s">
+        <v>381</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>382</v>
+      </c>
+      <c r="O57" t="s">
+        <v>78</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>383</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>384</v>
+      </c>
+      <c r="J58" t="s">
+        <v>385</v>
+      </c>
+      <c r="K58" t="s">
+        <v>386</v>
+      </c>
+      <c r="L58" t="s">
+        <v>387</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>382</v>
+      </c>
+      <c r="O58" t="s">
+        <v>255</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>388</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>389</v>
+      </c>
+      <c r="J59" t="s">
+        <v>390</v>
+      </c>
+      <c r="K59" t="s">
+        <v>391</v>
+      </c>
+      <c r="L59" t="s">
+        <v>392</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>393</v>
+      </c>
+      <c r="O59" t="s">
+        <v>78</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>395</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>396</v>
+      </c>
+      <c r="J60" t="s">
+        <v>397</v>
+      </c>
+      <c r="K60" t="s">
+        <v>398</v>
+      </c>
+      <c r="L60" t="s">
+        <v>399</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>400</v>
+      </c>
+      <c r="O60" t="s">
+        <v>78</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>401</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>402</v>
+      </c>
+      <c r="J61" t="s">
+        <v>403</v>
+      </c>
+      <c r="K61" t="s">
+        <v>404</v>
+      </c>
+      <c r="L61" t="s">
+        <v>405</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>406</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>408</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>409</v>
+      </c>
+      <c r="J62" t="s">
+        <v>410</v>
+      </c>
+      <c r="K62" t="s">
+        <v>411</v>
+      </c>
+      <c r="L62" t="s">
+        <v>412</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>413</v>
+      </c>
+      <c r="O62" t="s">
+        <v>78</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>414</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>415</v>
+      </c>
+      <c r="J63" t="s">
+        <v>416</v>
+      </c>
+      <c r="K63" t="s">
+        <v>417</v>
+      </c>
+      <c r="L63" t="s">
+        <v>418</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>413</v>
+      </c>
+      <c r="O63" t="s">
+        <v>78</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>419</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>420</v>
+      </c>
+      <c r="J64" t="s">
+        <v>421</v>
+      </c>
+      <c r="K64" t="s">
+        <v>422</v>
+      </c>
+      <c r="L64" t="s">
+        <v>423</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>424</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>425</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>426</v>
+      </c>
+      <c r="J65" t="s">
+        <v>427</v>
+      </c>
+      <c r="K65" t="s">
+        <v>428</v>
+      </c>
+      <c r="L65" t="s">
+        <v>429</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>430</v>
+      </c>
+      <c r="O65" t="s">
+        <v>78</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>431</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>432</v>
+      </c>
+      <c r="J66" t="s">
+        <v>433</v>
+      </c>
+      <c r="K66" t="s">
+        <v>434</v>
+      </c>
+      <c r="L66" t="s">
+        <v>435</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>436</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>438</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>439</v>
+      </c>
+      <c r="J67" t="s">
+        <v>440</v>
+      </c>
+      <c r="K67" t="s">
+        <v>441</v>
+      </c>
+      <c r="L67" t="s">
+        <v>442</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>443</v>
+      </c>
+      <c r="O67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>445</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>446</v>
+      </c>
+      <c r="J68" t="s">
+        <v>447</v>
+      </c>
+      <c r="K68" t="s">
+        <v>448</v>
+      </c>
+      <c r="L68" t="s">
+        <v>449</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>450</v>
+      </c>
+      <c r="O68" t="s">
+        <v>78</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>451</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>452</v>
+      </c>
+      <c r="J69" t="s">
+        <v>453</v>
+      </c>
+      <c r="K69" t="s">
+        <v>454</v>
+      </c>
+      <c r="L69" t="s">
+        <v>455</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>450</v>
+      </c>
+      <c r="O69" t="s">
+        <v>78</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>456</v>
+      </c>
+      <c r="X69" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>459</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>460</v>
+      </c>
+      <c r="J70" t="s">
+        <v>461</v>
+      </c>
+      <c r="K70" t="s">
+        <v>462</v>
+      </c>
+      <c r="L70" t="s">
+        <v>463</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>464</v>
+      </c>
+      <c r="O70" t="s">
+        <v>78</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>466</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>467</v>
+      </c>
+      <c r="J71" t="s">
+        <v>468</v>
+      </c>
+      <c r="K71" t="s">
+        <v>469</v>
+      </c>
+      <c r="L71" t="s">
+        <v>470</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>471</v>
+      </c>
+      <c r="O71" t="s">
+        <v>78</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>473</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>474</v>
+      </c>
+      <c r="J72" t="s">
+        <v>475</v>
+      </c>
+      <c r="K72" t="s">
+        <v>476</v>
+      </c>
+      <c r="L72" t="s">
+        <v>477</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>478</v>
+      </c>
+      <c r="O72" t="s">
+        <v>255</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>479</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>480</v>
+      </c>
+      <c r="J73" t="s">
+        <v>481</v>
+      </c>
+      <c r="K73" t="s">
+        <v>482</v>
+      </c>
+      <c r="L73" t="s">
+        <v>483</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>484</v>
+      </c>
+      <c r="O73" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>485</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>486</v>
+      </c>
+      <c r="J74" t="s">
+        <v>487</v>
+      </c>
+      <c r="K74" t="s">
+        <v>488</v>
+      </c>
+      <c r="L74" t="s">
+        <v>489</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>6124</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>490</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>491</v>
+      </c>
+      <c r="J75" t="s">
+        <v>492</v>
+      </c>
+      <c r="K75" t="s">
+        <v>493</v>
+      </c>
+      <c r="L75" t="s">
+        <v>494</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>494</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_628.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_628.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="568">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>James M</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Candace M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r576123450-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>zorrob138</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r574640980-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>I CANNOT recommend this house highly enough! Many years of travelling between Texas Panhandle and Houston area have given us the opportunity of knowing this place since it was fairly new. The furnishings and hardware now show some wear, but the only way I can describe it is "lovingly maintained". Quality Inn, Ennis is family owned and family-friendly. These folks really take pride in what they do. Always immaculate. Grounds and pool always"five-star". The staff are top notch and are genuinely friendly. Example: stayed November '17, again earlier this month (April '18). The breakfast buffet lady greeted me and asked about our grandsons. She had remembered me. Kidded her I was going to get her a raise, she gestured towards an older gentlemen and said "tell him". He was the owner, on his first round of the day (6:30 AM). May sound odd, but feel comfortable and safe here. Good folks.More</t>
   </si>
   <si>
+    <t>Amy R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r535078804-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>cathyss</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r531199329-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t>Very nice man checked us in. I didn't research enough to know this was a dog friendly hotel. I usually avoid dog friendly places.  I feel it is hard enough to clean up after people. I don't like the idea of walking on carpet that someone else's dog had been on. The carpets in the halls had stains. Room looked clean. Didn't have breakfast.More</t>
   </si>
   <si>
+    <t>582gailj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r518301722-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>I cannot say enough about our stay. IMPRESSED!!! Greeted by owner Rudy, very nice man. Wanted to make sure your needs are taken care of. Checked in by Bryan, very polite and helpful, especially with setting up my wifi, and then there was Carol in the breakfast bar who goes out of her way to make sure of your needs. The room w/50" TV and very nice recliner, lobby &amp; dining area was very clean and exterior grounds manicured. The pool, hot tub and sitting areas w/lit up trees and nice patio furniture clean and inviting. Complete staff during our stay was polite and there to meet your needs. I would and will stay again, 10 STARS to Quality Inn Ennis, Tx!!!!More</t>
   </si>
   <si>
+    <t>Cassandra C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r493767754-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Michael D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r484808813-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -321,6 +345,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Barbie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r482151769-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -336,6 +363,9 @@
     <t>This hotel was a wonderful find. We travel in a tractor trailor and are in hotels everynight and have become a custom to many unfavorable things in these hotels. Nothing unfavorable here! Although an older hotel, it is Very clean and the grounds are beautifully manicured.  Comfortable bed with cozy comforter. The bathroom very clean and the shower had great water pressure. The staff was very kind and Carol even fixed or waffels for us and brought them to our table. I know these are all small things, but it is very unusual to find all of the above in on hotel.</t>
   </si>
   <si>
+    <t>gfh77665</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r445983162-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -354,6 +384,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Stephanie O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r442053566-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -375,6 +408,9 @@
     <t>I never stay at a hotel that I haven't check out on Trip Advisor first.  This was the #2 rated hotel in Ennis but it has a refrigerator and microwave in the room and the #1 rated hotel didn't.This is a motor lodge like in the 60's with each doorway open to the outside.  Request a room facing the pool area it you like a quiet room.We were greeted with a gift package in our room of 2 small chocolate bars and a package of microwaveable popcorn.  Nice.It is a family owned hotel and the front desk person was very personable and answered our questions regarding the area.The bedroom area seems to have been remodeled recently but the bathroom needs some work.  The entire area was very clean so a person can overlook the need to update.The price was fair and we would stay here again.There are a number of restaurants you can walk to.More</t>
   </si>
   <si>
+    <t>Mary M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r437632590-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -390,6 +426,9 @@
     <t xml:space="preserve">We stay here whenever we are in Ennis on a business weekend. It is an older hotel but well cared for. The grounds are lovely. The staff is very friendly &amp; helpful. The breakfast has good choices that offer a hot breakfast &amp; not all carbs. The rooms are comfortable &amp; clean. My only complaint is the fridge sets on the floor with the microwave on top. This is not handy for my husband who is disabled. This quality Inn is affordable &amp; we feel safe staying here. Highly recommend! </t>
   </si>
   <si>
+    <t>Carol S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r432910652-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -408,6 +447,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>SoonerlawyerTulsa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r414947830-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -429,6 +471,9 @@
     <t>I stayed here one night and the check in staff and breakfast staff were friendly and attentive. The hotel is older and has room access from outside with no interior hallways , but the property is kept up well. Free internet was strong in our room which was one of the further rooms from the lobby. The rooms were also spotless,  but could use furniture updating. The towels were also of low  quality and  need to be upgraded. The hotel is close to the highway and there are several fast food locations within walking distance of the hotel. I can recommend this hotel because of its price, location and cleanliness but it is not a modern design if that it is important to you. However, if you have been traveling and just need a clean and inexpensive room to stay the night before you continue on your trip then this hotel is a great choice.More</t>
   </si>
   <si>
+    <t>rusty924</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r410199092-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -450,6 +495,9 @@
     <t>My husband and I stayed at this hotel while traveling through the area.  We called directly to hotel and booked our reservation with a very nice gentleman at front desk. We had not stayed at this hotel before and I was very surprised and impressed when opening up the door to our room.  The hotel room was immaculate and the furniture was looked to be fairly new.  Bed was extremely comfortable. Only negative thing would be that the towels were thin; otherwise, everything else was fabulous! We enjoyed our complementary breakfast in the morning which had great eggs, toast, waffles, etc.  Owner was so nice that he even made us a waffle!  We will definitely stay at this hotel again when we are in the area.More</t>
   </si>
   <si>
+    <t>e10441</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r388568148-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -468,6 +516,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Schandler77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r383679623-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -486,6 +537,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>J C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r382930484-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -501,6 +555,9 @@
     <t>This was a last minute decision to go out of town and I was wanting to find a room that would not be too far from the highway and not overly priced on a Friday night. Not only did this fulfill my need, it was worth the price I paid. Next time I'm in that area of Texas, I plan on staying there again.</t>
   </si>
   <si>
+    <t>risingwolf1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r367512775-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -522,6 +579,9 @@
     <t>This very lovingly managed hotel was just the perfect place to rest for the evening.  The staff could not have been more accommodating, even selling me pillows from the bed that I had fallen in love with the previous night.  The bed was uber comfortable, the location perfect, the room beautifully created and clean, well-kept.  You can't go wrong if you stay here.  If you're into WhatABurgers, there's one in an adjacent corner and lots of other options nearby to eat.  I would gladly stay here again if I'm anywhere near this neck of the woods again.  If you are looking for a great base motel with comfy beds, plenty of space and well-managed, this is it.More</t>
   </si>
   <si>
+    <t>jjervin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r363071758-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -540,6 +600,9 @@
     <t>This property is well appointed - room could use newer carpet - however; if you need just a King Bed - you are in for an additional treat - of at least it was for me! Electric Recliners have been added to all King Rooms - extremely comfortable. Added nice touch was the "welcome" basket that included a cozy - a few mini candy bars &amp; popcorn. The room location was the issue - I 45 is directly across from the front of the hotel - our room was on the front #109 - you hear EVER 18 Wheeler getting off of I 45. Nice hotel for a 2 Diamond AAA Property and the AAA rate was very reasonable - just ask for a King Room on the back of the property and I feel your stay will be improved.More</t>
   </si>
   <si>
+    <t>BusinessTravele</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r361892921-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -558,6 +621,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>John B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r353142626-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -594,6 +660,9 @@
     <t>One of the friendliest places we have stayed starting when the young woman who took my reservation over the phone. I requested a downstairs handicapped room with 2 beds. When we arrived we were upgraded to a king bed with bars in the tub, which is what we needed. The owner is on the premises &amp; was tending the breakfast area, making certain food was hot &amp; plentiful. He's a very nice man to chat with, as well. The only negative I had was the refrigerator/microwave sat directly on the floor &amp; was easily to access for my handicapped husband. I mentioned this to the owner &amp; he quickly nodded his head. He mentioned they are starting some room renovations soon. Prices are reasonable, the grounds &amp; room are well kept. We had a pleasant business stay.More</t>
   </si>
   <si>
+    <t>X1life4u</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r344965910-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -612,6 +681,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>c_weidenhammer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r302448715-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -627,6 +699,9 @@
     <t>Staff was helpful and friendly.  Front desk went out of their way for my husband who was unexpectedly sick while we were traveling, they even provided a free room upgrade.  Not to mention the breakfast included waffles in the shape of TEXAS!</t>
   </si>
   <si>
+    <t>Rhonda B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r294008285-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -645,6 +720,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Bryan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r290813532-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -660,6 +738,9 @@
     <t>Hotel Staff is wonderful and helpful. The room was clean and an extremely comfortable bed just needs BIGGER pillows. The pool was refreshing after a long day of travel and the location makes it easy to find a favorite place to eat. They had quality food for the breakfast. This is a wonderful place to stay overall</t>
   </si>
   <si>
+    <t>tamshake</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r282074838-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -675,6 +756,9 @@
     <t>We did a late trip to Louisiana and stumbled across Ennis! This hotel is the Best stay! Very well worth the money. It was inexpensive, and had all the bells and whistles. We would stay again in a heartbeat. They had everything In the room, microwave, mini frig, coffee etc. morning breakfast was awesome!!! Stay here you will be glad you did!!</t>
   </si>
   <si>
+    <t>galveston_gal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r280367302-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -693,6 +777,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>westwj1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r275186974-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -714,6 +801,9 @@
     <t>I rarely am anxious to drive all the way to D/FW from Houston. i wanted to stay at this hotel based on reviews, price, and what I had heard about the wonderful family. The price was amazing. When you drive up, you are not too sure, except for the adorable antique truck in the drive,, but then you walk in to a living room that looks like something your parents would have, complete with a movable city scene. Greeting me, of course, were the wonderful owners. They made me very certain i had made the right choice, and was very welcome. Were these my parents? They gave me a suite, maybe because I was Professional woman traveling on her own. I went to Chilis for dinner (wish the hotel had apps and cocktails), but I am used to that. After my "marginal" dinner I drove to the hotel, walked past the very  nice pool to my room.  Ok, I am used to 4-5 star. This was not that. What I had was like going back to my "happy place" at Mema's ( my mom's mom in Kentucky)  floral furniture, plants, cute kitchen, super clean!!!!!! This is COMFORT staying.  I am going to enjoy my big bed. Glad I stopped at this adorable little place. Listen to your heart-don't judge a book by the name!More</t>
   </si>
   <si>
+    <t>Karen C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r265304144-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -732,6 +822,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Jerry C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r261968494-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -750,6 +843,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Bruce J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r260961590-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -768,6 +864,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>pdncpd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r258442179-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -789,6 +888,9 @@
     <t>On February 27, Dallas was beat up by a nasty ice storm. My friend and I were due to leave on Saturday to meet a cruise ship in Houston.  We figured if we did not get out of town on Friday, we might not get out on Saturday at all and our travel insurance would not cover us if we missed the ship. It took five hours to get out of Dallas and y the time we got to Ennis we were exhausted. We found the Quality Inn at Ennis, Tx. They had rooms at a bargain rate. The rooms were clean, quiet, on the ground floor and included breakfast. They had the best waffles and the service was excellent. We enjoyed our stay and the breakfast.More</t>
   </si>
   <si>
+    <t>gpechal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r257311329-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -804,6 +906,9 @@
     <t>The Ennis Quality Inn is the best place to stay in Ennis. Nothing fancy, but good value. Pool is best in town. Rooms are clean, comfortable and quiet. Everything works as it should. Property is park like, and maintained by 3 generations of a local Czech family, so they care and it shows.</t>
   </si>
   <si>
+    <t>Kandis C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r256746488-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -819,6 +924,9 @@
     <t>My Husband and I stayed here on the way up to Colorado Springs for his fathers Funeral.  We liked it so much we stayed again on the way back to Houston.  The Customer Service was outstanding and we were quite comfortable in our room.  We got a good nights sleep.  Their breakfast was very very good.  They make an awesome waffle! Very nice people!    We will stay here everytime we head that way!  Thank you Quality Inn Ennis, Tx!!!</t>
   </si>
   <si>
+    <t>Moses223</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r246205659-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -837,6 +945,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Tbcb79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r238523632-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -852,6 +963,9 @@
     <t>Owners and staff take a lot of pride in their property. Very clean property and close to I45. Breakfast is very good with a wide variety of choices. Grounds are kept up very well Will plan to stay there when in the area.</t>
   </si>
   <si>
+    <t>Greg D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r235082529-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -870,6 +984,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>markchristy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r231368893-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -885,6 +1002,9 @@
     <t>Stopped here on the way back to Houston.  We found the front desk personnel and they were very helpful and went out of their way to get us into the room quickly.  Very friendly and upgraded us at no cost.Room was very nice and clean .  Will stay here again.</t>
   </si>
   <si>
+    <t>Harvey P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r229612396-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -900,6 +1020,9 @@
     <t>We found this hotel by chance when our regular hotel was booked.  What a find.  One of the last Owner-on-Site places left. Genuine hospitality and hometown comfort. Great price too. Morning breakfast was wonderful. Fresh and hot with a complimentary USA Today on every table.Owner remains in the breakfast area providing conversation and assistance keeping everything stocked and fresh.  Coffee was amazing.  Shopping and dining choices within walking distance. Just far enough from the Metro area to be cozy.  Will never stay anywhere else when in the Dallas area.</t>
   </si>
   <si>
+    <t>Ted A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r229257593-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -918,6 +1041,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>nickyyy_b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r216382570-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -933,6 +1059,9 @@
     <t>We stayed here on a redeye road trip from springfield to houston. We arrived at 3am, received tentative service, slept well, and stayed in clean conditions.  Definately wasn't the Hilton, but it was reasonably priced and provided us with a clean place to rest for a few hours.</t>
   </si>
   <si>
+    <t>Meem424</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r204338993-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -951,6 +1080,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>ducksoup1959</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r198007444-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -969,6 +1101,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>SHANNON H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r193976434-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -987,6 +1122,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>okietraalelers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r191233071-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1005,6 +1143,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>CharmaineOR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r185304550-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1023,6 +1164,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Gre66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r176874765-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1041,6 +1185,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>David M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r175093198-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1057,6 +1204,9 @@
   </si>
   <si>
     <t>August 2013</t>
+  </si>
+  <si>
+    <t>Chiliburger340</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r167463335-Quality_Inn-Ennis_Texas.html</t>
@@ -1090,6 +1240,9 @@
 The next morning I met the owner who was running the breakfast room and his wife who was running the front desk.  Mr and Mrs. Ozymy are two of the friendliest folks you will ever meet.  They both take great pride in their business and it is apparently a family affair with at least several of the employees I met were family members who also seemed to enjoy their jobs and keep the place up...I Tried this hotel because of their billboard on Interstate 45.  I was greeted by a friendly front desk clerk and a friendly bar keep.This hotel looks like one of the old Holiday Inns that I enjoyed staying at for years.  Hotel is well built and well maintained.  I got a "Down and Out" King (Downstairs facing the parking lot).  These rooms are great for convenience since you are just a few steps from your car.Room was clean and bed was comfortable.  They have a small bar that I was told is only open on the weekdays.  This hotel is really convenient to several eating establishments.  There is a Waffle House right next door and on the same side of the main street there is a Chili's, Wendy's, and Jack in the Box.  There is also a Super Wal-Mart within easy walking distance, but the hotel is not on the street with direct access to the Wal-Mart, so traffic is not a factor.The next morning I met the owner who was running the breakfast room and his wife who was running the front desk.  Mr and Mrs. Ozymy are two of the friendliest folks you will ever meet.  They both take great pride in their business and it is apparently a family affair with at least several of the employees I met were family members who also seemed to enjoy their jobs and keep the place up very well.I will definately stay here in my next visit to Ennis.More</t>
   </si>
   <si>
+    <t>Johnnie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r161892307-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1108,6 +1261,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>JustKatePineGrove</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r161616923-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1123,6 +1279,9 @@
     <t>My husband and I spent one night and were very impressed with the motel.  The customer service is first rate...Southern hospitality at its best It is an older establishment, but like the other viewers said, very well maintained. The rooms were clean and comfortable.  The grounds are immaculate,.  We stayed in one of the rooms facing the pool and relaxed by the pool before dinner.  I highly recommend this motel.</t>
   </si>
   <si>
+    <t>Opecanty</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r160134053-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1141,6 +1300,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Scubableu03</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r153959487-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1159,6 +1321,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Pam J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r143404002-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1177,6 +1342,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>JGB87</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r143226845-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1192,6 +1360,9 @@
     <t>Wanted to thank Quality Inn for working with the PSA group on hotel rooms and being friendly with the large crowd that came into town last weekend. Rooms were clean and comfortable and will be visting again next time we are in town. Thanks!!!</t>
   </si>
   <si>
+    <t>Mrs K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r137209881-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1213,6 +1384,9 @@
     <t>Location is excellent.  Walking distance of less than a block to wide variety of restaurants including Starbucks, Chilis, Whataburger, and the like, but the area is also quiet as well (at least when we were there on a Sunday night). Across the street is the Chamber of Commerce so if you are visiting the area it would be easy to get information! The staff (family) is very pleasant and work very hard to make sure you stay is a good one - they truly do demonstrate the pride their website describes. Our room was all updated with new tile, fixtures, bedding, etc. Landscaping is pretty and if you like to walk there are large shade trees, a great patio area as well.  The hotel, rooms, and grounds were extremely clean. We felt the prices were fair and a good value.  The breakfast was also above what is normally offered at a quality inn. They had a wide variety and the entire family was able to get full - the staff/family made sure to restock as things ran out which is a nice change. The hot eggs and sausage were good and a nice change. The kids enjoyed the special waffles (don't want to spoil the little surprise you get with those!)  We will be staying here again on our next trip South.More</t>
   </si>
   <si>
+    <t>Lynnetta H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r134217902-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1231,6 +1405,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>2NPTravellers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r133452429-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1252,6 +1429,9 @@
     <t>Not a new property.....but so well maintained, unbelieveable!  Pecos TX could take quite a few lessons from this property.  First of all the reception at the front desk was wonderful.  Warm &amp; gracious...everyone at the property.   The room was perfectly clean and everything worked!  I was new to using my laptop on the road.....the general manager came to our room to help me connect and gave me a few tips.  What service!!!!  The breakfast room was a beauty.  It is a gathering place in the evening with spirits, beer and a baby grand piano.  In the morning the waffles are made to perfection and brought to your table.  We really can't say enough about this property.  The only thing that we're sorry for is that we missed the International Polka Festival, held in Ennis every year, the last weekend in May.  We were there the following weekend, darn!   Anyway, this is NUMBER ONE in my book for Quality Inns - Thank you to the family who runs this establishment.....it was wonderful ....oh yes..and the price for our room was $81.36 for one night....vs $130.01 for Pecos which was well.....let's not go there...you can read that review if you like.  Just go to Ennis TX and stay here!More</t>
   </si>
   <si>
+    <t>recorder</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r121401794-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1270,6 +1450,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>SheriWashingtonState</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r121205484-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1285,6 +1468,9 @@
     <t>top scores in all respects. (Entrance road tricky)..  Comfortable beds, professional happy staff, great hot tub and outside pool, excellent breakfast with high protein options, bar open evenings during business week.  This is a 27 year family owned and operated facility which makes for a staff totally dedicated to welfare of patrons.  Highly recommended. We were surprised with upgrade to a larger room.  You will not be disappointed. We will be back.  Thanks Trip Advisor!  Very helpful in locating this great place to stay!</t>
   </si>
   <si>
+    <t>Bob S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r119911349-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1303,6 +1489,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>ellenrifanburg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r88575482-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1321,6 +1510,9 @@
     <t>November 2010</t>
   </si>
   <si>
+    <t>angelfitz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r84529713-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1342,6 +1534,9 @@
     <t>If you enjoy and appreciate the comforts of home, you will relish in your stay at this family-run hotel. The staff is EXTRA nice, helpful, and friendly. For example,  I was expecting a very important package and the staff was nice enough to call me when the package arrived. Thanks to their attention to their customers, I was able to pick up the package prior to the end of my event and save face with my client by delivering what was promised! Oh, and the free breakfast was the perfect start to the day - not to mention the awesome Douwe Egbert's coffee! The staff and courtesy of Quality Inn runs circles around some of the bigger chains, including Fairfield Inn in El Paso!I travel five days a week all across the Southwest and I definitely look forward to staying at this hotel in the future!More</t>
   </si>
   <si>
+    <t>Maggie76667</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r76636327-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1363,6 +1558,9 @@
     <t>I checked in around 10 am and was very pleasantly greeted by the front desk associate.  I was put in a very quiet end of the hotel and was very happy due to the fact that I had been traveling non stop and was exhausted.  The room was very comfortable however the A/C wasn't top notch and the room needed some updating.  It was a smoking room, which I requested but did not smell "stale" as most smoking rooms do.  When I checked out the next morning I informed the front desk of the small issues and they were VERY attentive, apologized profusely and wanted to make sure I was satisfied with my stay.  I HIGHLY recommend this hotel, if nothing but for the welcoming attitude of the staff and their positive attitude of "You're a guest and you CHOSE our hotel."  It was wonderful.  Thank you for a very positive experience!!More</t>
   </si>
   <si>
+    <t>longhornfan1313</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r50108613-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1381,6 +1579,9 @@
     <t>November 2009</t>
   </si>
   <si>
+    <t>dbrallmann</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r49287587-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1405,6 +1606,9 @@
     <t>Stayed in this hotel for one evening.  The room was off the driveway near the outdoor pool.  Easy to access and had two queen beds.  We didn't use the microwave, refrigerator or coffee maker.  The air conditioner was really loud during the evening, but we kept it on as not to hear any noise.  Was fine.  The room was clean and the beds comfortable.  The tub, toilet grout had been sloppily done and looked dirty.  When I was in the shower the water surged to very hot and then back to normal all through the shower.  The balancer must have been broken.  I started listening for the change in sound of the water coming through the pipes and then moved out of the way for the rest of my shower.  Let the front desk know at check out.  Was good for a one night stay.  Close to everything.More</t>
   </si>
   <si>
+    <t>mallaloca</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r42754392-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1426,6 +1630,9 @@
     <t>We had to make a sudden stop traveling to Houston and we ended up in this little hotel. The room was small but very clean, with a refrigerator and microwave and all the perks...Our room was facing the street but it wasn'y noisy at all. We had a Denny's a Chili's, a Jack on the box and many other restaurants around us, even an Autozone that helped us get on our way again. The rate included breakfast, which was very good, and the people that ran the cafeteria was very nice and friendly, they even had this cute texas-shaped waffles that my kids loved! So if you need to stop somewhere in Ennis, this is a very good place to do so.More</t>
   </si>
   <si>
+    <t>Lusianaatheart</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r18318253-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1447,6 +1654,9 @@
     <t>Wanted an inexpensive place nearby home to swim and relax for the weekend.  I read the reviews of the Quality Inn (which is motel style - all of the rooms are entered from the outside) and decided to give the place a try.  I was very pleasantly surprised.  The property is clean, and very well maintained - and I do mean very well maintained.  The staff are very friendly and helpful.  My 5 year old and I stayed in a king room, which had a flat screen t.v., a desk, microwave, and a mini-fridge.  The room was clean and the bed linens were upscale.  The bathtub and faucets could be updated though.  The shower head was nice - had several settings including a rainshower setting.  Our room faced the swimming pool, which is a very nice size with several large steps leading into the pool for a small child to play on.  The 7-person hot tub was separate from the pool.  It's built up on a deck and has a walkway leading up to it.  The hot tub probably does need to be updated, but it worked.  Even though it was hot outside, the water in the hot tub was a comfortable temperature.  Outside of the swimming pool area is a large lawn which just beckons for someone to play games on.  The motel has a full bar for hotel guests - open M-F, and a continental breakfast in the...Wanted an inexpensive place nearby home to swim and relax for the weekend.  I read the reviews of the Quality Inn (which is motel style - all of the rooms are entered from the outside) and decided to give the place a try.  I was very pleasantly surprised.  The property is clean, and very well maintained - and I do mean very well maintained.  The staff are very friendly and helpful.  My 5 year old and I stayed in a king room, which had a flat screen t.v., a desk, microwave, and a mini-fridge.  The room was clean and the bed linens were upscale.  The bathtub and faucets could be updated though.  The shower head was nice - had several settings including a rainshower setting.  Our room faced the swimming pool, which is a very nice size with several large steps leading into the pool for a small child to play on.  The 7-person hot tub was separate from the pool.  It's built up on a deck and has a walkway leading up to it.  The hot tub probably does need to be updated, but it worked.  Even though it was hot outside, the water in the hot tub was a comfortable temperature.  Outside of the swimming pool area is a large lawn which just beckons for someone to play games on.  The motel has a full bar for hotel guests - open M-F, and a continental breakfast in the morning. I did not access the bar, nor did we have breakfast, so I can't comment on those amenities.  Within a very easy walking distance are a couple of restaurants, 3 fast food places and a coffee bar.  There are several restaurants, fast food places and stores within a short driving distance.  Check-in at the motel is a breeze and check-in times are flexible.  Check-out is 12:00 p.m., so you can sleep in if you want to.  This motel is locally owned and operated.  It's obvious that the owners take pride in their business and offer excellent customer service so their customers will keep coming back.  We will definitely be back - hope this place is around for many more years.More</t>
   </si>
   <si>
+    <t>GBJones</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r15001670-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1465,6 +1675,9 @@
     <t>March 2008</t>
   </si>
   <si>
+    <t>cored33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r13064220-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1483,6 +1696,9 @@
     <t>October 2007</t>
   </si>
   <si>
+    <t>preparer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r7295445-Quality_Inn-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1496,6 +1712,9 @@
   </si>
   <si>
     <t>Very clean and staff nice.  Recommended by local Visitors Info. office and reasonbly priced.  Off  of main road I-45 a little bit which cuts down on highway  noise in room.</t>
+  </si>
+  <si>
+    <t>iowanurse</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d98828-r5539104-Quality_Inn-Ennis_Texas.html</t>
@@ -2015,43 +2234,47 @@
       <c r="A2" t="n">
         <v>6124</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>408</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2065,50 +2288,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>6124</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>40164</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2128,41 +2355,45 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>6124</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>174263</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
@@ -2181,50 +2412,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>6124</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>5563</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2238,50 +2473,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>6124</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>174264</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2297,47 +2536,51 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="X6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6124</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>174265</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
@@ -2356,50 +2599,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6124</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>3353</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2413,50 +2660,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>6124</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>1907</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2470,50 +2721,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>6124</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>174266</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2533,50 +2788,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>6124</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>10108</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2596,50 +2855,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>6124</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>39163</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2659,50 +2922,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>6124</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>3739</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2716,50 +2983,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>6124</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>14804</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="K14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="O14" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2773,50 +3044,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>6124</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>174267</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="O15" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2836,50 +3111,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>6124</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>174268</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2899,50 +3178,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>6124</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>174269</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2956,50 +3239,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>6124</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>6637</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3013,50 +3300,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>6124</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>32629</v>
+      </c>
+      <c r="C19" t="s">
+        <v>173</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="K19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="O19" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3070,50 +3361,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>6124</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>174270</v>
+      </c>
+      <c r="C20" t="s">
+        <v>179</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="J20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3131,50 +3426,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>6124</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>174271</v>
+      </c>
+      <c r="C21" t="s">
+        <v>187</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3194,50 +3493,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>6124</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>174272</v>
+      </c>
+      <c r="C22" t="s">
+        <v>194</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="J22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="K22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3257,50 +3560,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>6124</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>508</v>
+      </c>
+      <c r="C23" t="s">
+        <v>201</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3320,50 +3627,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>6124</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>3739</v>
+      </c>
+      <c r="C24" t="s">
+        <v>130</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="J24" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3381,50 +3692,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>6124</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>174273</v>
+      </c>
+      <c r="C25" t="s">
+        <v>214</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="J25" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="K25" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3444,50 +3759,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>6124</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>174274</v>
+      </c>
+      <c r="C26" t="s">
+        <v>221</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="J26" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="K26" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3501,50 +3820,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>6124</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>7838</v>
+      </c>
+      <c r="C27" t="s">
+        <v>227</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="J27" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="K27" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="O27" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3558,50 +3881,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>6124</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>584</v>
+      </c>
+      <c r="C28" t="s">
+        <v>234</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="J28" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="K28" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3619,41 +3946,45 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>6124</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>174275</v>
+      </c>
+      <c r="C29" t="s">
+        <v>240</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="J29" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="K29" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="L29" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
@@ -3672,50 +4003,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>6124</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>62402</v>
+      </c>
+      <c r="C30" t="s">
+        <v>246</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="J30" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="K30" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="L30" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3733,50 +4068,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>6124</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>174276</v>
+      </c>
+      <c r="C31" t="s">
+        <v>253</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="J31" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="K31" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="L31" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3790,50 +4129,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>6124</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>6548</v>
+      </c>
+      <c r="C32" t="s">
+        <v>261</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="J32" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="K32" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="L32" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="O32" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -3853,50 +4196,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>6124</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>2657</v>
+      </c>
+      <c r="C33" t="s">
+        <v>268</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="J33" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="K33" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3916,50 +4263,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>6124</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>33865</v>
+      </c>
+      <c r="C34" t="s">
+        <v>275</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="J34" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="K34" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -3977,50 +4328,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>6124</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>174277</v>
+      </c>
+      <c r="C35" t="s">
+        <v>282</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="J35" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="K35" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="L35" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="O35" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4038,50 +4393,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>6124</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>174278</v>
+      </c>
+      <c r="C36" t="s">
+        <v>290</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="J36" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="K36" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="L36" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4099,50 +4458,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>6124</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>174279</v>
+      </c>
+      <c r="C37" t="s">
+        <v>296</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="J37" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="K37" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="L37" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="O37" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4156,50 +4519,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>6124</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>174280</v>
+      </c>
+      <c r="C38" t="s">
+        <v>302</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="J38" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="K38" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="O38" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4217,50 +4584,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>6124</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>174281</v>
+      </c>
+      <c r="C39" t="s">
+        <v>309</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="J39" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="K39" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="L39" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4278,50 +4649,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>6124</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>22665</v>
+      </c>
+      <c r="C40" t="s">
+        <v>315</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="J40" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="K40" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="O40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4339,41 +4714,45 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>6124</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>174282</v>
+      </c>
+      <c r="C41" t="s">
+        <v>322</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="J41" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="K41" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="L41" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
@@ -4392,50 +4771,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>6124</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>63717</v>
+      </c>
+      <c r="C42" t="s">
+        <v>328</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="J42" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="K42" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="L42" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -4453,50 +4836,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>6124</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>174283</v>
+      </c>
+      <c r="C43" t="s">
+        <v>334</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="J43" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="K43" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="L43" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4516,50 +4903,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>6124</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>174284</v>
+      </c>
+      <c r="C44" t="s">
+        <v>341</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="J44" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="K44" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="O44" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4573,50 +4964,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>6124</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>174285</v>
+      </c>
+      <c r="C45" t="s">
+        <v>347</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="J45" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="K45" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="L45" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="O45" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4640,50 +5035,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>6124</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>174286</v>
+      </c>
+      <c r="C46" t="s">
+        <v>354</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="J46" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="K46" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="L46" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4707,50 +5106,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>6124</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>174287</v>
+      </c>
+      <c r="C47" t="s">
+        <v>361</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
       <c r="J47" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="K47" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="L47" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4774,50 +5177,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>6124</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>174288</v>
+      </c>
+      <c r="C48" t="s">
+        <v>368</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="J48" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="K48" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="L48" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="O48" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -4831,50 +5238,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>6124</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>174289</v>
+      </c>
+      <c r="C49" t="s">
+        <v>375</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="J49" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="K49" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="L49" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="O49" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4898,50 +5309,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>6124</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>174290</v>
+      </c>
+      <c r="C50" t="s">
+        <v>382</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="J50" t="s">
-        <v>337</v>
+        <v>385</v>
       </c>
       <c r="K50" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
       <c r="L50" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="O50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -4965,50 +5380,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>6124</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>2192</v>
+      </c>
+      <c r="C51" t="s">
+        <v>389</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="J51" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="K51" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="L51" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
       <c r="O51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5032,50 +5451,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>6124</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>174291</v>
+      </c>
+      <c r="C52" t="s">
+        <v>396</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="J52" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="K52" t="s">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L52" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5099,50 +5522,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>6124</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>174292</v>
+      </c>
+      <c r="C53" t="s">
+        <v>404</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>354</v>
+        <v>405</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>355</v>
+        <v>406</v>
       </c>
       <c r="J53" t="s">
-        <v>356</v>
+        <v>407</v>
       </c>
       <c r="K53" t="s">
-        <v>357</v>
+        <v>408</v>
       </c>
       <c r="L53" t="s">
-        <v>358</v>
+        <v>409</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="O53" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5166,50 +5593,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>358</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>6124</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>174293</v>
+      </c>
+      <c r="C54" t="s">
+        <v>411</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>360</v>
+        <v>412</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="J54" t="s">
-        <v>362</v>
+        <v>414</v>
       </c>
       <c r="K54" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="L54" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="O54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5233,50 +5664,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>6124</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>125806</v>
+      </c>
+      <c r="C55" t="s">
+        <v>417</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>366</v>
+        <v>419</v>
       </c>
       <c r="J55" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="K55" t="s">
-        <v>368</v>
+        <v>421</v>
       </c>
       <c r="L55" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="O55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5300,50 +5735,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>6124</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>174294</v>
+      </c>
+      <c r="C56" t="s">
+        <v>424</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="J56" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="K56" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="L56" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
       <c r="O56" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5367,50 +5806,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>6124</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>9221</v>
+      </c>
+      <c r="C57" t="s">
+        <v>431</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>378</v>
+        <v>433</v>
       </c>
       <c r="J57" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="K57" t="s">
-        <v>380</v>
+        <v>435</v>
       </c>
       <c r="L57" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="O57" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5434,50 +5877,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>6124</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>174295</v>
+      </c>
+      <c r="C58" t="s">
+        <v>438</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>384</v>
+        <v>440</v>
       </c>
       <c r="J58" t="s">
-        <v>385</v>
+        <v>441</v>
       </c>
       <c r="K58" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="L58" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="O58" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5501,50 +5948,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>6124</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>47697</v>
+      </c>
+      <c r="C59" t="s">
+        <v>444</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="J59" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="K59" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="L59" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="O59" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5568,50 +6019,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>6124</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>174296</v>
+      </c>
+      <c r="C60" t="s">
+        <v>452</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="J60" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="K60" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="L60" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="O60" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5635,50 +6090,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>6124</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>174297</v>
+      </c>
+      <c r="C61" t="s">
+        <v>459</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>401</v>
+        <v>460</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>402</v>
+        <v>461</v>
       </c>
       <c r="J61" t="s">
-        <v>403</v>
+        <v>462</v>
       </c>
       <c r="K61" t="s">
-        <v>404</v>
+        <v>463</v>
       </c>
       <c r="L61" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="O61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5702,50 +6161,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>407</v>
+        <v>466</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>6124</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>98355</v>
+      </c>
+      <c r="C62" t="s">
+        <v>467</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>408</v>
+        <v>468</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="J62" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="K62" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="L62" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
       <c r="O62" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -5769,50 +6232,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>6124</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>174298</v>
+      </c>
+      <c r="C63" t="s">
+        <v>474</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>414</v>
+        <v>475</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
       <c r="J63" t="s">
-        <v>416</v>
+        <v>477</v>
       </c>
       <c r="K63" t="s">
-        <v>417</v>
+        <v>478</v>
       </c>
       <c r="L63" t="s">
-        <v>418</v>
+        <v>479</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
       <c r="O63" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -5836,50 +6303,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>418</v>
+        <v>479</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>6124</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>5778</v>
+      </c>
+      <c r="C64" t="s">
+        <v>480</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>419</v>
+        <v>481</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>420</v>
+        <v>482</v>
       </c>
       <c r="J64" t="s">
-        <v>421</v>
+        <v>483</v>
       </c>
       <c r="K64" t="s">
-        <v>422</v>
+        <v>484</v>
       </c>
       <c r="L64" t="s">
-        <v>423</v>
+        <v>485</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>424</v>
+        <v>486</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -5903,50 +6374,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>423</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>6124</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>174299</v>
+      </c>
+      <c r="C65" t="s">
+        <v>487</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>425</v>
+        <v>488</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>426</v>
+        <v>489</v>
       </c>
       <c r="J65" t="s">
-        <v>427</v>
+        <v>490</v>
       </c>
       <c r="K65" t="s">
-        <v>428</v>
+        <v>491</v>
       </c>
       <c r="L65" t="s">
-        <v>429</v>
+        <v>492</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>430</v>
+        <v>493</v>
       </c>
       <c r="O65" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -5970,50 +6445,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>429</v>
+        <v>492</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>6124</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>174300</v>
+      </c>
+      <c r="C66" t="s">
+        <v>494</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>431</v>
+        <v>495</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>432</v>
+        <v>496</v>
       </c>
       <c r="J66" t="s">
-        <v>433</v>
+        <v>497</v>
       </c>
       <c r="K66" t="s">
-        <v>434</v>
+        <v>498</v>
       </c>
       <c r="L66" t="s">
-        <v>435</v>
+        <v>499</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6037,50 +6516,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>437</v>
+        <v>501</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>6124</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>174301</v>
+      </c>
+      <c r="C67" t="s">
+        <v>502</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>438</v>
+        <v>503</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>439</v>
+        <v>504</v>
       </c>
       <c r="J67" t="s">
-        <v>440</v>
+        <v>505</v>
       </c>
       <c r="K67" t="s">
-        <v>441</v>
+        <v>506</v>
       </c>
       <c r="L67" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>443</v>
+        <v>508</v>
       </c>
       <c r="O67" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6104,50 +6587,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>444</v>
+        <v>509</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>6124</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>174302</v>
+      </c>
+      <c r="C68" t="s">
+        <v>510</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>445</v>
+        <v>511</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
       <c r="J68" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="K68" t="s">
-        <v>448</v>
+        <v>514</v>
       </c>
       <c r="L68" t="s">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>450</v>
+        <v>516</v>
       </c>
       <c r="O68" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6171,50 +6658,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>449</v>
+        <v>515</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>6124</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>174303</v>
+      </c>
+      <c r="C69" t="s">
+        <v>517</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>451</v>
+        <v>518</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>452</v>
+        <v>519</v>
       </c>
       <c r="J69" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="K69" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="L69" t="s">
-        <v>455</v>
+        <v>522</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>450</v>
+        <v>516</v>
       </c>
       <c r="O69" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6236,56 +6727,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>456</v>
+        <v>523</v>
       </c>
       <c r="X69" t="s">
-        <v>457</v>
+        <v>524</v>
       </c>
       <c r="Y69" t="s">
-        <v>458</v>
+        <v>525</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>6124</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>174304</v>
+      </c>
+      <c r="C70" t="s">
+        <v>526</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>459</v>
+        <v>527</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>460</v>
+        <v>528</v>
       </c>
       <c r="J70" t="s">
-        <v>461</v>
+        <v>529</v>
       </c>
       <c r="K70" t="s">
-        <v>462</v>
+        <v>530</v>
       </c>
       <c r="L70" t="s">
-        <v>463</v>
+        <v>531</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>464</v>
+        <v>532</v>
       </c>
       <c r="O70" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -6309,50 +6804,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>6124</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>174305</v>
+      </c>
+      <c r="C71" t="s">
+        <v>534</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>466</v>
+        <v>535</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>467</v>
+        <v>536</v>
       </c>
       <c r="J71" t="s">
-        <v>468</v>
+        <v>537</v>
       </c>
       <c r="K71" t="s">
-        <v>469</v>
+        <v>538</v>
       </c>
       <c r="L71" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>471</v>
+        <v>540</v>
       </c>
       <c r="O71" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -6376,50 +6875,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>472</v>
+        <v>541</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>6124</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>174306</v>
+      </c>
+      <c r="C72" t="s">
+        <v>542</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>473</v>
+        <v>543</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>474</v>
+        <v>544</v>
       </c>
       <c r="J72" t="s">
-        <v>475</v>
+        <v>545</v>
       </c>
       <c r="K72" t="s">
-        <v>476</v>
+        <v>546</v>
       </c>
       <c r="L72" t="s">
-        <v>477</v>
+        <v>547</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>478</v>
+        <v>548</v>
       </c>
       <c r="O72" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -6443,50 +6946,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>477</v>
+        <v>547</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>6124</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>174307</v>
+      </c>
+      <c r="C73" t="s">
+        <v>549</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>479</v>
+        <v>550</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>480</v>
+        <v>551</v>
       </c>
       <c r="J73" t="s">
-        <v>481</v>
+        <v>552</v>
       </c>
       <c r="K73" t="s">
-        <v>482</v>
+        <v>553</v>
       </c>
       <c r="L73" t="s">
-        <v>483</v>
+        <v>554</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>484</v>
+        <v>555</v>
       </c>
       <c r="O73" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -6510,41 +7017,45 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>483</v>
+        <v>554</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>6124</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>174308</v>
+      </c>
+      <c r="C74" t="s">
+        <v>556</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>485</v>
+        <v>557</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>486</v>
+        <v>558</v>
       </c>
       <c r="J74" t="s">
-        <v>487</v>
+        <v>559</v>
       </c>
       <c r="K74" t="s">
-        <v>488</v>
+        <v>560</v>
       </c>
       <c r="L74" t="s">
-        <v>489</v>
+        <v>561</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
@@ -6573,41 +7084,45 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>489</v>
+        <v>561</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>6124</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>174309</v>
+      </c>
+      <c r="C75" t="s">
+        <v>562</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>490</v>
+        <v>563</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>491</v>
+        <v>564</v>
       </c>
       <c r="J75" t="s">
-        <v>492</v>
+        <v>565</v>
       </c>
       <c r="K75" t="s">
-        <v>493</v>
+        <v>566</v>
       </c>
       <c r="L75" t="s">
-        <v>494</v>
+        <v>567</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
@@ -6626,7 +7141,7 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>494</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
